--- a/www.eia.gov/petroleum/production/xls/table4.xlsx
+++ b/www.eia.gov/petroleum/production/xls/table4.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\eianas02\OEA\MLW\Documents\EIA-914 Survey Expansion\Webpage Docs\December 2016\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\eianas01\OES\mcr\Documents\914\2017.01_Final Files\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -869,7 +869,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J114"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
@@ -945,418 +947,418 @@
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A6" s="21">
-        <v>42278</v>
+        <v>42309</v>
       </c>
       <c r="B6" s="9">
-        <v>90366</v>
+        <v>91040</v>
       </c>
       <c r="C6" s="10">
-        <v>-6.0000000000000001E-3</v>
+        <v>7.0000000000000001E-3</v>
       </c>
       <c r="D6" s="17">
-        <v>2.4E-2</v>
+        <v>2.5999999999999999E-2</v>
       </c>
       <c r="E6" s="9">
-        <v>81352</v>
+        <v>81381</v>
       </c>
       <c r="F6" s="10">
-        <v>-0.01</v>
+        <v>0</v>
       </c>
       <c r="G6" s="10">
-        <v>2.3E-2</v>
+        <v>2.5999999999999999E-2</v>
       </c>
       <c r="H6" s="16">
-        <v>9014</v>
+        <v>9659</v>
       </c>
       <c r="I6" s="10">
-        <v>3.5000000000000003E-2</v>
+        <v>7.1999999999999995E-2</v>
       </c>
       <c r="J6" s="10">
-        <v>2.9000000000000001E-2</v>
+        <v>2.5999999999999999E-2</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A7" s="21">
-        <v>42309</v>
+        <v>42339</v>
       </c>
       <c r="B7" s="9">
-        <v>91040</v>
+        <v>90787</v>
       </c>
       <c r="C7" s="10">
-        <v>7.0000000000000001E-3</v>
+        <v>-3.0000000000000001E-3</v>
       </c>
       <c r="D7" s="17">
-        <v>2.5999999999999999E-2</v>
+        <v>1.6E-2</v>
       </c>
       <c r="E7" s="9">
-        <v>81381</v>
+        <v>80978</v>
       </c>
       <c r="F7" s="10">
-        <v>0</v>
+        <v>-5.0000000000000001E-3</v>
       </c>
       <c r="G7" s="10">
-        <v>2.5999999999999999E-2</v>
+        <v>1.7000000000000001E-2</v>
       </c>
       <c r="H7" s="16">
-        <v>9659</v>
+        <v>9808</v>
       </c>
       <c r="I7" s="10">
-        <v>7.1999999999999995E-2</v>
+        <v>1.4999999999999999E-2</v>
       </c>
       <c r="J7" s="10">
-        <v>2.5999999999999999E-2</v>
+        <v>8.0000000000000002E-3</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A8" s="21">
-        <v>42339</v>
+        <v>42370</v>
       </c>
       <c r="B8" s="9">
-        <v>90787</v>
+        <v>90938</v>
       </c>
       <c r="C8" s="10">
-        <v>-3.0000000000000001E-3</v>
+        <v>2E-3</v>
       </c>
       <c r="D8" s="17">
-        <v>1.6E-2</v>
+        <v>1.7000000000000001E-2</v>
       </c>
       <c r="E8" s="9">
-        <v>80978</v>
+        <v>81299</v>
       </c>
       <c r="F8" s="10">
-        <v>-5.0000000000000001E-3</v>
+        <v>4.0000000000000001E-3</v>
       </c>
       <c r="G8" s="10">
         <v>1.7000000000000001E-2</v>
       </c>
       <c r="H8" s="16">
-        <v>9808</v>
+        <v>9639</v>
       </c>
       <c r="I8" s="10">
-        <v>1.4999999999999999E-2</v>
+        <v>-1.7000000000000001E-2</v>
       </c>
       <c r="J8" s="10">
-        <v>8.0000000000000002E-3</v>
+        <v>2.4E-2</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A9" s="21">
-        <v>42370</v>
+        <v>42401</v>
       </c>
       <c r="B9" s="9">
-        <v>90938</v>
+        <v>92010</v>
       </c>
       <c r="C9" s="10">
-        <v>2E-3</v>
+        <v>1.2E-2</v>
       </c>
       <c r="D9" s="17">
-        <v>1.7000000000000001E-2</v>
+        <v>2.4E-2</v>
       </c>
       <c r="E9" s="9">
-        <v>81299</v>
+        <v>82586</v>
       </c>
       <c r="F9" s="10">
-        <v>4.0000000000000001E-3</v>
+        <v>1.6E-2</v>
       </c>
       <c r="G9" s="10">
-        <v>1.7000000000000001E-2</v>
+        <v>2.3E-2</v>
       </c>
       <c r="H9" s="16">
-        <v>9639</v>
+        <v>9424</v>
       </c>
       <c r="I9" s="10">
-        <v>-1.7000000000000001E-2</v>
+        <v>-2.1999999999999999E-2</v>
       </c>
       <c r="J9" s="10">
-        <v>2.4E-2</v>
+        <v>3.6999999999999998E-2</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A10" s="21">
-        <v>42401</v>
+        <v>42430</v>
       </c>
       <c r="B10" s="9">
-        <v>92010</v>
+        <v>91077</v>
       </c>
       <c r="C10" s="10">
-        <v>1.2E-2</v>
+        <v>-0.01</v>
       </c>
       <c r="D10" s="17">
-        <v>2.4E-2</v>
+        <v>0</v>
       </c>
       <c r="E10" s="9">
-        <v>82586</v>
+        <v>81553</v>
       </c>
       <c r="F10" s="10">
-        <v>1.6E-2</v>
+        <v>-1.2E-2</v>
       </c>
       <c r="G10" s="10">
-        <v>2.3E-2</v>
+        <v>2E-3</v>
       </c>
       <c r="H10" s="16">
-        <v>9424</v>
+        <v>9524</v>
       </c>
       <c r="I10" s="10">
-        <v>-2.1999999999999999E-2</v>
+        <v>1.0999999999999999E-2</v>
       </c>
       <c r="J10" s="10">
-        <v>3.6999999999999998E-2</v>
+        <v>-1.6E-2</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A11" s="21">
-        <v>42430</v>
+        <v>42461</v>
       </c>
       <c r="B11" s="9">
-        <v>91077</v>
+        <v>89401</v>
       </c>
       <c r="C11" s="10">
-        <v>-0.01</v>
+        <v>-1.7999999999999999E-2</v>
       </c>
       <c r="D11" s="17">
-        <v>0</v>
+        <v>-2.5000000000000001E-2</v>
       </c>
       <c r="E11" s="9">
-        <v>81553</v>
+        <v>81197</v>
       </c>
       <c r="F11" s="10">
+        <v>-4.0000000000000001E-3</v>
+      </c>
+      <c r="G11" s="10">
         <v>-1.2E-2</v>
       </c>
-      <c r="G11" s="10">
-        <v>2E-3</v>
-      </c>
       <c r="H11" s="16">
-        <v>9524</v>
+        <v>8204</v>
       </c>
       <c r="I11" s="10">
-        <v>1.0999999999999999E-2</v>
+        <v>-0.13900000000000001</v>
       </c>
       <c r="J11" s="10">
-        <v>-1.6E-2</v>
+        <v>-0.13600000000000001</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A12" s="21">
-        <v>42461</v>
+        <v>42491</v>
       </c>
       <c r="B12" s="9">
-        <v>89401</v>
+        <v>89630</v>
       </c>
       <c r="C12" s="10">
-        <v>-1.7999999999999999E-2</v>
+        <v>3.0000000000000001E-3</v>
       </c>
       <c r="D12" s="17">
-        <v>-2.5000000000000001E-2</v>
+        <v>-5.0000000000000001E-3</v>
       </c>
       <c r="E12" s="9">
-        <v>81197</v>
+        <v>80946</v>
       </c>
       <c r="F12" s="10">
-        <v>-4.0000000000000001E-3</v>
+        <v>-3.0000000000000001E-3</v>
       </c>
       <c r="G12" s="10">
-        <v>-1.2E-2</v>
+        <v>-8.0000000000000002E-3</v>
       </c>
       <c r="H12" s="16">
-        <v>8204</v>
+        <v>8684</v>
       </c>
       <c r="I12" s="10">
-        <v>-0.13900000000000001</v>
+        <v>5.8999999999999997E-2</v>
       </c>
       <c r="J12" s="10">
-        <v>-0.13600000000000001</v>
+        <v>0.03</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A13" s="21">
-        <v>42491</v>
+        <v>42522</v>
       </c>
       <c r="B13" s="9">
-        <v>89630</v>
+        <v>87833</v>
       </c>
       <c r="C13" s="10">
-        <v>3.0000000000000001E-3</v>
+        <v>-0.02</v>
       </c>
       <c r="D13" s="17">
-        <v>-5.0000000000000001E-3</v>
+        <v>-1.2999999999999999E-2</v>
       </c>
       <c r="E13" s="9">
-        <v>80946</v>
+        <v>80039</v>
       </c>
       <c r="F13" s="10">
-        <v>-3.0000000000000001E-3</v>
+        <v>-1.0999999999999999E-2</v>
       </c>
       <c r="G13" s="10">
-        <v>-8.0000000000000002E-3</v>
+        <v>-1.7999999999999999E-2</v>
       </c>
       <c r="H13" s="16">
-        <v>8684</v>
+        <v>7794</v>
       </c>
       <c r="I13" s="10">
-        <v>5.8999999999999997E-2</v>
+        <v>-0.10199999999999999</v>
       </c>
       <c r="J13" s="10">
-        <v>0.03</v>
+        <v>4.8000000000000001E-2</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A14" s="21">
-        <v>42522</v>
+        <v>42552</v>
       </c>
       <c r="B14" s="9">
-        <v>87833</v>
+        <v>87414</v>
       </c>
       <c r="C14" s="10">
-        <v>-0.02</v>
+        <v>-5.0000000000000001E-3</v>
       </c>
       <c r="D14" s="17">
-        <v>-1.2999999999999999E-2</v>
+        <v>-1.7000000000000001E-2</v>
       </c>
       <c r="E14" s="9">
-        <v>80039</v>
+        <v>79690</v>
       </c>
       <c r="F14" s="10">
-        <v>-1.0999999999999999E-2</v>
+        <v>-4.0000000000000001E-3</v>
       </c>
       <c r="G14" s="10">
-        <v>-1.7999999999999999E-2</v>
+        <v>-2.5999999999999999E-2</v>
       </c>
       <c r="H14" s="16">
-        <v>7794</v>
+        <v>7724</v>
       </c>
       <c r="I14" s="10">
-        <v>-0.10199999999999999</v>
+        <v>-8.9999999999999993E-3</v>
       </c>
       <c r="J14" s="10">
-        <v>4.8000000000000001E-2</v>
+        <v>8.2000000000000003E-2</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A15" s="21">
-        <v>42552</v>
+        <v>42583</v>
       </c>
       <c r="B15" s="9">
-        <v>87414</v>
+        <v>88453</v>
       </c>
       <c r="C15" s="10">
-        <v>-5.0000000000000001E-3</v>
+        <v>1.2E-2</v>
       </c>
       <c r="D15" s="17">
-        <v>-1.7000000000000001E-2</v>
+        <v>0</v>
       </c>
       <c r="E15" s="9">
-        <v>79690</v>
+        <v>80378</v>
       </c>
       <c r="F15" s="10">
-        <v>-4.0000000000000001E-3</v>
+        <v>8.9999999999999993E-3</v>
       </c>
       <c r="G15" s="10">
-        <v>-2.5999999999999999E-2</v>
+        <v>-1.7999999999999999E-2</v>
       </c>
       <c r="H15" s="16">
-        <v>7724</v>
+        <v>8075</v>
       </c>
       <c r="I15" s="10">
-        <v>-8.9999999999999993E-3</v>
+        <v>4.4999999999999998E-2</v>
       </c>
       <c r="J15" s="10">
-        <v>8.2000000000000003E-2</v>
+        <v>0.22700000000000001</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A16" s="21">
-        <v>42583</v>
-      </c>
-      <c r="B16" s="9">
-        <v>88453</v>
-      </c>
-      <c r="C16" s="10">
-        <v>1.2E-2</v>
-      </c>
-      <c r="D16" s="17">
-        <v>0</v>
-      </c>
-      <c r="E16" s="9">
-        <v>80378</v>
-      </c>
-      <c r="F16" s="10">
-        <v>8.9999999999999993E-3</v>
-      </c>
-      <c r="G16" s="10">
-        <v>-1.7999999999999999E-2</v>
-      </c>
-      <c r="H16" s="16">
-        <v>8075</v>
-      </c>
-      <c r="I16" s="10">
-        <v>4.4999999999999998E-2</v>
-      </c>
-      <c r="J16" s="10">
-        <v>0.22700000000000001</v>
+        <v>42614</v>
+      </c>
+      <c r="B16" s="11">
+        <v>87997</v>
+      </c>
+      <c r="C16" s="12">
+        <v>-5.0000000000000001E-3</v>
+      </c>
+      <c r="D16" s="19">
+        <v>-3.2000000000000001E-2</v>
+      </c>
+      <c r="E16" s="11">
+        <v>79688</v>
+      </c>
+      <c r="F16" s="20">
+        <v>-8.9999999999999993E-3</v>
+      </c>
+      <c r="G16" s="20">
+        <v>-0.03</v>
+      </c>
+      <c r="H16" s="18">
+        <v>8309</v>
+      </c>
+      <c r="I16" s="20">
+        <v>2.9000000000000001E-2</v>
+      </c>
+      <c r="J16" s="20">
+        <v>-4.5999999999999999E-2</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A17" s="21">
-        <v>42614</v>
+        <v>42644</v>
       </c>
       <c r="B17" s="11">
-        <v>88028</v>
+        <v>87623</v>
       </c>
       <c r="C17" s="12">
-        <v>-5.0000000000000001E-3</v>
+        <v>-4.0000000000000001E-3</v>
       </c>
       <c r="D17" s="19">
+        <v>-0.03</v>
+      </c>
+      <c r="E17" s="11">
+        <v>78851</v>
+      </c>
+      <c r="F17" s="20">
+        <v>-1.0999999999999999E-2</v>
+      </c>
+      <c r="G17" s="20">
         <v>-3.1E-2</v>
       </c>
-      <c r="E17" s="11">
-        <v>79719</v>
-      </c>
-      <c r="F17" s="20">
-        <v>-8.0000000000000002E-3</v>
-      </c>
-      <c r="G17" s="20">
-        <v>-0.03</v>
-      </c>
       <c r="H17" s="18">
-        <v>8309</v>
+        <v>8772</v>
       </c>
       <c r="I17" s="20">
-        <v>2.9000000000000001E-2</v>
+        <v>5.6000000000000001E-2</v>
       </c>
       <c r="J17" s="20">
-        <v>-4.5999999999999999E-2</v>
+        <v>-2.7E-2</v>
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A18" s="21">
-        <v>42644</v>
+        <v>42675</v>
       </c>
       <c r="B18" s="11">
-        <v>87633</v>
+        <v>89508</v>
       </c>
       <c r="C18" s="12">
-        <v>-4.0000000000000001E-3</v>
+        <v>2.1999999999999999E-2</v>
       </c>
       <c r="D18" s="19">
-        <v>-0.03</v>
+        <v>-1.7000000000000001E-2</v>
       </c>
       <c r="E18" s="11">
-        <v>78861</v>
+        <v>79709</v>
       </c>
       <c r="F18" s="20">
-        <v>-1.0999999999999999E-2</v>
+        <v>1.0999999999999999E-2</v>
       </c>
       <c r="G18" s="20">
-        <v>-3.1E-2</v>
+        <v>-2.1000000000000001E-2</v>
       </c>
       <c r="H18" s="18">
-        <v>8772</v>
+        <v>9799</v>
       </c>
       <c r="I18" s="20">
-        <v>5.6000000000000001E-2</v>
+        <v>0.11700000000000001</v>
       </c>
       <c r="J18" s="20">
-        <v>-2.7E-2</v>
+        <v>1.4999999999999999E-2</v>
       </c>
     </row>
     <row r="20" spans="1:10" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
@@ -1411,418 +1413,418 @@
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A22" s="21">
-        <v>42278</v>
+        <v>42309</v>
       </c>
       <c r="B22" s="9">
-        <v>2676</v>
+        <v>2632</v>
       </c>
       <c r="C22" s="10">
-        <v>-1.2E-2</v>
+        <v>-1.6E-2</v>
       </c>
       <c r="D22" s="17">
-        <v>-0.121</v>
+        <v>-0.14599999999999999</v>
       </c>
       <c r="E22" s="9">
-        <v>595</v>
+        <v>598</v>
       </c>
       <c r="F22" s="10">
-        <v>-2.9000000000000001E-2</v>
+        <v>4.0000000000000001E-3</v>
       </c>
       <c r="G22" s="10">
-        <v>-6.9000000000000006E-2</v>
+        <v>-7.3999999999999996E-2</v>
       </c>
       <c r="H22" s="16">
-        <v>4731</v>
+        <v>4693</v>
       </c>
       <c r="I22" s="10">
-        <v>2.1999999999999999E-2</v>
+        <v>-8.0000000000000002E-3</v>
       </c>
       <c r="J22" s="10">
-        <v>2.7E-2</v>
+        <v>3.2000000000000001E-2</v>
       </c>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A23" s="21">
-        <v>42309</v>
+        <v>42339</v>
       </c>
       <c r="B23" s="9">
-        <v>2632</v>
+        <v>2585</v>
       </c>
       <c r="C23" s="10">
-        <v>-1.6E-2</v>
+        <v>-1.7999999999999999E-2</v>
       </c>
       <c r="D23" s="17">
-        <v>-0.14599999999999999</v>
+        <v>-0.14399999999999999</v>
       </c>
       <c r="E23" s="9">
-        <v>598</v>
+        <v>617</v>
       </c>
       <c r="F23" s="10">
-        <v>4.0000000000000001E-3</v>
+        <v>3.2000000000000001E-2</v>
       </c>
       <c r="G23" s="10">
-        <v>-7.3999999999999996E-2</v>
+        <v>-4.3999999999999997E-2</v>
       </c>
       <c r="H23" s="16">
-        <v>4693</v>
+        <v>4622</v>
       </c>
       <c r="I23" s="10">
-        <v>-8.0000000000000002E-3</v>
+        <v>-1.4999999999999999E-2</v>
       </c>
       <c r="J23" s="10">
-        <v>3.2000000000000001E-2</v>
+        <v>1.7000000000000001E-2</v>
       </c>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A24" s="21">
-        <v>42339</v>
+        <v>42370</v>
       </c>
       <c r="B24" s="9">
-        <v>2585</v>
+        <v>2511</v>
       </c>
       <c r="C24" s="10">
-        <v>-1.7999999999999999E-2</v>
+        <v>-2.9000000000000001E-2</v>
       </c>
       <c r="D24" s="17">
-        <v>-0.14399999999999999</v>
+        <v>-0.13600000000000001</v>
       </c>
       <c r="E24" s="9">
-        <v>617</v>
+        <v>604</v>
       </c>
       <c r="F24" s="10">
-        <v>3.2000000000000001E-2</v>
+        <v>-0.02</v>
       </c>
       <c r="G24" s="10">
-        <v>-4.3999999999999997E-2</v>
+        <v>-4.2999999999999997E-2</v>
       </c>
       <c r="H24" s="16">
-        <v>4622</v>
+        <v>4633</v>
       </c>
       <c r="I24" s="10">
-        <v>-1.4999999999999999E-2</v>
+        <v>2E-3</v>
       </c>
       <c r="J24" s="10">
-        <v>1.7000000000000001E-2</v>
+        <v>2E-3</v>
       </c>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A25" s="21">
-        <v>42370</v>
+        <v>42401</v>
       </c>
       <c r="B25" s="9">
-        <v>2511</v>
+        <v>2482</v>
       </c>
       <c r="C25" s="10">
-        <v>-2.9000000000000001E-2</v>
+        <v>-1.2E-2</v>
       </c>
       <c r="D25" s="17">
-        <v>-0.13600000000000001</v>
+        <v>-0.112</v>
       </c>
       <c r="E25" s="9">
-        <v>604</v>
+        <v>590</v>
       </c>
       <c r="F25" s="10">
-        <v>-0.02</v>
+        <v>-2.4E-2</v>
       </c>
       <c r="G25" s="10">
-        <v>-4.2999999999999997E-2</v>
+        <v>-7.5999999999999998E-2</v>
       </c>
       <c r="H25" s="16">
-        <v>4633</v>
+        <v>4632</v>
       </c>
       <c r="I25" s="10">
-        <v>2E-3</v>
+        <v>0</v>
       </c>
       <c r="J25" s="10">
-        <v>2E-3</v>
+        <v>-1.4999999999999999E-2</v>
       </c>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A26" s="21">
-        <v>42401</v>
+        <v>42430</v>
       </c>
       <c r="B26" s="9">
-        <v>2482</v>
+        <v>2405</v>
       </c>
       <c r="C26" s="10">
-        <v>-1.2E-2</v>
+        <v>-3.1E-2</v>
       </c>
       <c r="D26" s="17">
-        <v>-0.112</v>
+        <v>-0.161</v>
       </c>
       <c r="E26" s="9">
-        <v>590</v>
+        <v>586</v>
       </c>
       <c r="F26" s="10">
-        <v>-2.4E-2</v>
+        <v>-6.0000000000000001E-3</v>
       </c>
       <c r="G26" s="10">
         <v>-7.5999999999999998E-2</v>
       </c>
       <c r="H26" s="16">
-        <v>4632</v>
+        <v>4633</v>
       </c>
       <c r="I26" s="10">
         <v>0</v>
       </c>
       <c r="J26" s="10">
-        <v>-1.4999999999999999E-2</v>
+        <v>-1.2E-2</v>
       </c>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A27" s="21">
-        <v>42430</v>
+        <v>42461</v>
       </c>
       <c r="B27" s="9">
-        <v>2405</v>
+        <v>2361</v>
       </c>
       <c r="C27" s="10">
-        <v>-3.1E-2</v>
+        <v>-1.7999999999999999E-2</v>
       </c>
       <c r="D27" s="17">
-        <v>-0.161</v>
+        <v>-0.188</v>
       </c>
       <c r="E27" s="9">
-        <v>586</v>
+        <v>587</v>
       </c>
       <c r="F27" s="10">
-        <v>-6.0000000000000001E-3</v>
+        <v>2E-3</v>
       </c>
       <c r="G27" s="10">
-        <v>-7.5999999999999998E-2</v>
+        <v>-0.14499999999999999</v>
       </c>
       <c r="H27" s="16">
-        <v>4633</v>
+        <v>4665</v>
       </c>
       <c r="I27" s="10">
-        <v>0</v>
+        <v>7.0000000000000001E-3</v>
       </c>
       <c r="J27" s="10">
-        <v>-1.2E-2</v>
+        <v>-7.0000000000000001E-3</v>
       </c>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A28" s="21">
-        <v>42461</v>
+        <v>42491</v>
       </c>
       <c r="B28" s="9">
-        <v>2361</v>
+        <v>2316</v>
       </c>
       <c r="C28" s="10">
-        <v>-1.7999999999999999E-2</v>
+        <v>-1.9E-2</v>
       </c>
       <c r="D28" s="17">
-        <v>-0.188</v>
+        <v>-0.19700000000000001</v>
       </c>
       <c r="E28" s="9">
-        <v>587</v>
+        <v>583</v>
       </c>
       <c r="F28" s="10">
+        <v>-7.0000000000000001E-3</v>
+      </c>
+      <c r="G28" s="10">
+        <v>-0.14699999999999999</v>
+      </c>
+      <c r="H28" s="16">
+        <v>4666</v>
+      </c>
+      <c r="I28" s="10">
+        <v>0</v>
+      </c>
+      <c r="J28" s="10">
         <v>2E-3</v>
-      </c>
-      <c r="G28" s="10">
-        <v>-0.14499999999999999</v>
-      </c>
-      <c r="H28" s="16">
-        <v>4665</v>
-      </c>
-      <c r="I28" s="10">
-        <v>7.0000000000000001E-3</v>
-      </c>
-      <c r="J28" s="10">
-        <v>-7.0000000000000001E-3</v>
       </c>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A29" s="21">
-        <v>42491</v>
+        <v>42522</v>
       </c>
       <c r="B29" s="9">
-        <v>2316</v>
+        <v>2245</v>
       </c>
       <c r="C29" s="10">
-        <v>-1.9E-2</v>
+        <v>-3.1E-2</v>
       </c>
       <c r="D29" s="17">
-        <v>-0.19700000000000001</v>
+        <v>-0.2</v>
       </c>
       <c r="E29" s="9">
-        <v>583</v>
+        <v>574</v>
       </c>
       <c r="F29" s="10">
-        <v>-7.0000000000000001E-3</v>
+        <v>-1.4999999999999999E-2</v>
       </c>
       <c r="G29" s="10">
-        <v>-0.14699999999999999</v>
+        <v>-0.12</v>
       </c>
       <c r="H29" s="16">
-        <v>4666</v>
+        <v>4560</v>
       </c>
       <c r="I29" s="10">
-        <v>0</v>
+        <v>-2.3E-2</v>
       </c>
       <c r="J29" s="10">
-        <v>2E-3</v>
+        <v>-2.8000000000000001E-2</v>
       </c>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A30" s="21">
-        <v>42522</v>
+        <v>42552</v>
       </c>
       <c r="B30" s="9">
-        <v>2245</v>
+        <v>2202</v>
       </c>
       <c r="C30" s="10">
-        <v>-3.1E-2</v>
+        <v>-1.9E-2</v>
       </c>
       <c r="D30" s="17">
         <v>-0.2</v>
       </c>
       <c r="E30" s="9">
-        <v>574</v>
+        <v>567</v>
       </c>
       <c r="F30" s="10">
-        <v>-1.4999999999999999E-2</v>
+        <v>-1.2999999999999999E-2</v>
       </c>
       <c r="G30" s="10">
-        <v>-0.12</v>
+        <v>-8.5999999999999993E-2</v>
       </c>
       <c r="H30" s="16">
-        <v>4560</v>
+        <v>4604</v>
       </c>
       <c r="I30" s="10">
-        <v>-2.3E-2</v>
+        <v>0.01</v>
       </c>
       <c r="J30" s="10">
-        <v>-2.8000000000000001E-2</v>
+        <v>2E-3</v>
       </c>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A31" s="21">
-        <v>42552</v>
+        <v>42583</v>
       </c>
       <c r="B31" s="9">
-        <v>2202</v>
+        <v>2168</v>
       </c>
       <c r="C31" s="10">
-        <v>-1.9E-2</v>
+        <v>-1.4999999999999999E-2</v>
       </c>
       <c r="D31" s="17">
-        <v>-0.2</v>
+        <v>-0.19700000000000001</v>
       </c>
       <c r="E31" s="9">
-        <v>567</v>
+        <v>575</v>
       </c>
       <c r="F31" s="10">
-        <v>-1.2999999999999999E-2</v>
+        <v>1.4E-2</v>
       </c>
       <c r="G31" s="10">
-        <v>-8.5999999999999993E-2</v>
+        <v>-8.5000000000000006E-2</v>
       </c>
       <c r="H31" s="16">
-        <v>4604</v>
+        <v>4710</v>
       </c>
       <c r="I31" s="10">
-        <v>0.01</v>
+        <v>2.3E-2</v>
       </c>
       <c r="J31" s="10">
-        <v>2E-3</v>
+        <v>-1E-3</v>
       </c>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A32" s="21">
-        <v>42583</v>
-      </c>
-      <c r="B32" s="9">
-        <v>2168</v>
-      </c>
-      <c r="C32" s="10">
-        <v>-1.4999999999999999E-2</v>
-      </c>
-      <c r="D32" s="17">
-        <v>-0.19700000000000001</v>
-      </c>
-      <c r="E32" s="9">
-        <v>575</v>
-      </c>
-      <c r="F32" s="10">
-        <v>1.4E-2</v>
-      </c>
-      <c r="G32" s="10">
-        <v>-8.5000000000000006E-2</v>
-      </c>
-      <c r="H32" s="16">
-        <v>4710</v>
-      </c>
-      <c r="I32" s="10">
-        <v>2.3E-2</v>
-      </c>
-      <c r="J32" s="10">
-        <v>-1E-3</v>
+        <v>42614</v>
+      </c>
+      <c r="B32" s="11">
+        <v>2141</v>
+      </c>
+      <c r="C32" s="12">
+        <v>-1.2E-2</v>
+      </c>
+      <c r="D32" s="19">
+        <v>-0.21</v>
+      </c>
+      <c r="E32" s="11">
+        <v>572</v>
+      </c>
+      <c r="F32" s="20">
+        <v>-4.0000000000000001E-3</v>
+      </c>
+      <c r="G32" s="20">
+        <v>-6.6000000000000003E-2</v>
+      </c>
+      <c r="H32" s="18">
+        <v>4673</v>
+      </c>
+      <c r="I32" s="20">
+        <v>-8.0000000000000002E-3</v>
+      </c>
+      <c r="J32" s="20">
+        <v>8.9999999999999993E-3</v>
       </c>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A33" s="21">
-        <v>42614</v>
+        <v>42644</v>
       </c>
       <c r="B33" s="11">
-        <v>2140</v>
+        <v>2126</v>
       </c>
       <c r="C33" s="12">
-        <v>-1.2999999999999999E-2</v>
+        <v>-7.0000000000000001E-3</v>
       </c>
       <c r="D33" s="19">
-        <v>-0.21</v>
+        <v>-0.20499999999999999</v>
       </c>
       <c r="E33" s="11">
-        <v>572</v>
+        <v>568</v>
       </c>
       <c r="F33" s="20">
-        <v>-4.0000000000000001E-3</v>
+        <v>-8.9999999999999993E-3</v>
       </c>
       <c r="G33" s="20">
-        <v>-6.7000000000000004E-2</v>
+        <v>-4.7E-2</v>
       </c>
       <c r="H33" s="18">
-        <v>4671</v>
+        <v>4706</v>
       </c>
       <c r="I33" s="20">
-        <v>-8.0000000000000002E-3</v>
+        <v>7.0000000000000001E-3</v>
       </c>
       <c r="J33" s="20">
-        <v>8.9999999999999993E-3</v>
+        <v>-5.0000000000000001E-3</v>
       </c>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A34" s="21">
-        <v>42644</v>
+        <v>42675</v>
       </c>
       <c r="B34" s="11">
-        <v>2125</v>
+        <v>2109</v>
       </c>
       <c r="C34" s="12">
-        <v>-7.0000000000000001E-3</v>
+        <v>-8.0000000000000002E-3</v>
       </c>
       <c r="D34" s="19">
-        <v>-0.20599999999999999</v>
+        <v>-0.19900000000000001</v>
       </c>
       <c r="E34" s="11">
-        <v>567</v>
+        <v>565</v>
       </c>
       <c r="F34" s="20">
-        <v>-8.9999999999999993E-3</v>
+        <v>-4.0000000000000001E-3</v>
       </c>
       <c r="G34" s="20">
-        <v>-4.7E-2</v>
+        <v>-5.3999999999999999E-2</v>
       </c>
       <c r="H34" s="18">
-        <v>4698</v>
+        <v>4726</v>
       </c>
       <c r="I34" s="20">
-        <v>6.0000000000000001E-3</v>
+        <v>4.0000000000000001E-3</v>
       </c>
       <c r="J34" s="20">
-        <v>-7.0000000000000001E-3</v>
+        <v>7.0000000000000001E-3</v>
       </c>
     </row>
     <row r="36" spans="1:10" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -1877,418 +1879,418 @@
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A38" s="21">
-        <v>42278</v>
+        <v>42309</v>
       </c>
       <c r="B38" s="9">
-        <v>3616</v>
+        <v>3467</v>
       </c>
       <c r="C38" s="10">
-        <v>-7.5999999999999998E-2</v>
+        <v>-4.1000000000000002E-2</v>
       </c>
       <c r="D38" s="17">
-        <v>1.2E-2</v>
+        <v>2.1999999999999999E-2</v>
       </c>
       <c r="E38" s="9">
-        <v>744</v>
+        <v>724</v>
       </c>
       <c r="F38" s="10">
-        <v>-8.9999999999999993E-3</v>
+        <v>-2.5999999999999999E-2</v>
       </c>
       <c r="G38" s="10">
+        <v>-9.1999999999999998E-2</v>
+      </c>
+      <c r="H38" s="16">
+        <v>4852</v>
+      </c>
+      <c r="I38" s="10">
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="J38" s="10">
         <v>-7.9000000000000001E-2</v>
-      </c>
-      <c r="H38" s="16">
-        <v>4826</v>
-      </c>
-      <c r="I38" s="10">
-        <v>-6.0000000000000001E-3</v>
-      </c>
-      <c r="J38" s="10">
-        <v>-7.8E-2</v>
       </c>
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A39" s="21">
-        <v>42309</v>
+        <v>42339</v>
       </c>
       <c r="B39" s="9">
-        <v>3467</v>
+        <v>3546</v>
       </c>
       <c r="C39" s="10">
-        <v>-4.1000000000000002E-2</v>
+        <v>2.3E-2</v>
       </c>
       <c r="D39" s="17">
-        <v>2.1999999999999999E-2</v>
+        <v>2.4E-2</v>
       </c>
       <c r="E39" s="9">
-        <v>724</v>
+        <v>739</v>
       </c>
       <c r="F39" s="10">
-        <v>-2.5999999999999999E-2</v>
+        <v>0.02</v>
       </c>
       <c r="G39" s="10">
-        <v>-9.1999999999999998E-2</v>
+        <v>-5.5E-2</v>
       </c>
       <c r="H39" s="16">
-        <v>4852</v>
+        <v>4660</v>
       </c>
       <c r="I39" s="10">
-        <v>6.0000000000000001E-3</v>
+        <v>-0.04</v>
       </c>
       <c r="J39" s="10">
-        <v>-7.9000000000000001E-2</v>
+        <v>-4.9000000000000002E-2</v>
       </c>
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A40" s="21">
-        <v>42339</v>
+        <v>42370</v>
       </c>
       <c r="B40" s="9">
-        <v>3546</v>
+        <v>3508</v>
       </c>
       <c r="C40" s="10">
-        <v>2.3E-2</v>
+        <v>-1.0999999999999999E-2</v>
       </c>
       <c r="D40" s="17">
-        <v>2.4E-2</v>
+        <v>0.01</v>
       </c>
       <c r="E40" s="9">
-        <v>739</v>
+        <v>727</v>
       </c>
       <c r="F40" s="10">
-        <v>0.02</v>
+        <v>-1.4999999999999999E-2</v>
       </c>
       <c r="G40" s="10">
-        <v>-5.5E-2</v>
+        <v>-0.17</v>
       </c>
       <c r="H40" s="16">
-        <v>4660</v>
+        <v>5126</v>
       </c>
       <c r="I40" s="10">
-        <v>-0.04</v>
+        <v>0.1</v>
       </c>
       <c r="J40" s="10">
-        <v>-4.9000000000000002E-2</v>
+        <v>5.0999999999999997E-2</v>
       </c>
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A41" s="21">
-        <v>42370</v>
+        <v>42401</v>
       </c>
       <c r="B41" s="9">
-        <v>3508</v>
+        <v>3487</v>
       </c>
       <c r="C41" s="10">
+        <v>-6.0000000000000001E-3</v>
+      </c>
+      <c r="D41" s="17">
+        <v>2.4E-2</v>
+      </c>
+      <c r="E41" s="9">
+        <v>720</v>
+      </c>
+      <c r="F41" s="10">
         <v>-1.0999999999999999E-2</v>
       </c>
-      <c r="D41" s="17">
-        <v>0.01</v>
-      </c>
-      <c r="E41" s="9">
-        <v>727</v>
-      </c>
-      <c r="F41" s="10">
-        <v>-1.4999999999999999E-2</v>
-      </c>
       <c r="G41" s="10">
-        <v>-0.17</v>
+        <v>-0.17499999999999999</v>
       </c>
       <c r="H41" s="16">
-        <v>5126</v>
+        <v>5279</v>
       </c>
       <c r="I41" s="10">
-        <v>0.1</v>
+        <v>0.03</v>
       </c>
       <c r="J41" s="10">
-        <v>5.0999999999999997E-2</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A42" s="21">
-        <v>42401</v>
+        <v>42430</v>
       </c>
       <c r="B42" s="9">
-        <v>3487</v>
+        <v>3591</v>
       </c>
       <c r="C42" s="10">
-        <v>-6.0000000000000001E-3</v>
+        <v>0.03</v>
       </c>
       <c r="D42" s="17">
-        <v>2.4E-2</v>
+        <v>0.14899999999999999</v>
       </c>
       <c r="E42" s="9">
-        <v>720</v>
+        <v>713</v>
       </c>
       <c r="F42" s="10">
-        <v>-1.0999999999999999E-2</v>
+        <v>-8.9999999999999993E-3</v>
       </c>
       <c r="G42" s="10">
-        <v>-0.17499999999999999</v>
+        <v>-0.17</v>
       </c>
       <c r="H42" s="16">
-        <v>5279</v>
+        <v>4916</v>
       </c>
       <c r="I42" s="10">
-        <v>0.03</v>
+        <v>-6.9000000000000006E-2</v>
       </c>
       <c r="J42" s="10">
-        <v>0.05</v>
+        <v>-8.0000000000000002E-3</v>
       </c>
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A43" s="21">
-        <v>42430</v>
+        <v>42461</v>
       </c>
       <c r="B43" s="9">
-        <v>3591</v>
+        <v>3396</v>
       </c>
       <c r="C43" s="10">
-        <v>0.03</v>
+        <v>-5.3999999999999999E-2</v>
       </c>
       <c r="D43" s="17">
-        <v>0.14899999999999999</v>
+        <v>-5.8999999999999997E-2</v>
       </c>
       <c r="E43" s="9">
-        <v>713</v>
+        <v>706</v>
       </c>
       <c r="F43" s="10">
-        <v>-8.9999999999999993E-3</v>
+        <v>-0.01</v>
       </c>
       <c r="G43" s="10">
-        <v>-0.17</v>
+        <v>-8.7999999999999995E-2</v>
       </c>
       <c r="H43" s="16">
-        <v>4916</v>
+        <v>5163</v>
       </c>
       <c r="I43" s="10">
-        <v>-6.9000000000000006E-2</v>
+        <v>0.05</v>
       </c>
       <c r="J43" s="10">
-        <v>-8.0000000000000002E-3</v>
+        <v>2.1999999999999999E-2</v>
       </c>
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A44" s="21">
-        <v>42461</v>
+        <v>42491</v>
       </c>
       <c r="B44" s="9">
-        <v>3396</v>
+        <v>3549</v>
       </c>
       <c r="C44" s="10">
-        <v>-5.3999999999999999E-2</v>
+        <v>4.4999999999999998E-2</v>
       </c>
       <c r="D44" s="17">
-        <v>-5.8999999999999997E-2</v>
+        <v>-2.1999999999999999E-2</v>
       </c>
       <c r="E44" s="9">
-        <v>706</v>
+        <v>697</v>
       </c>
       <c r="F44" s="10">
-        <v>-0.01</v>
+        <v>-1.2E-2</v>
       </c>
       <c r="G44" s="10">
-        <v>-8.7999999999999995E-2</v>
+        <v>-9.0999999999999998E-2</v>
       </c>
       <c r="H44" s="16">
-        <v>5163</v>
+        <v>5172</v>
       </c>
       <c r="I44" s="10">
-        <v>0.05</v>
+        <v>2E-3</v>
       </c>
       <c r="J44" s="10">
-        <v>2.1999999999999999E-2</v>
+        <v>2.3E-2</v>
       </c>
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A45" s="21">
-        <v>42491</v>
+        <v>42522</v>
       </c>
       <c r="B45" s="9">
-        <v>3549</v>
+        <v>3211</v>
       </c>
       <c r="C45" s="10">
-        <v>4.4999999999999998E-2</v>
+        <v>-9.5000000000000001E-2</v>
       </c>
       <c r="D45" s="17">
-        <v>-2.1999999999999999E-2</v>
+        <v>-9.5000000000000001E-2</v>
       </c>
       <c r="E45" s="9">
-        <v>697</v>
+        <v>684</v>
       </c>
       <c r="F45" s="10">
-        <v>-1.2E-2</v>
+        <v>-1.9E-2</v>
       </c>
       <c r="G45" s="10">
-        <v>-9.0999999999999998E-2</v>
+        <v>-0.105</v>
       </c>
       <c r="H45" s="16">
-        <v>5172</v>
+        <v>5008</v>
       </c>
       <c r="I45" s="10">
-        <v>2E-3</v>
+        <v>-3.2000000000000001E-2</v>
       </c>
       <c r="J45" s="10">
-        <v>2.3E-2</v>
+        <v>3.4000000000000002E-2</v>
       </c>
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A46" s="21">
-        <v>42522</v>
+        <v>42552</v>
       </c>
       <c r="B46" s="9">
-        <v>3211</v>
+        <v>3224</v>
       </c>
       <c r="C46" s="10">
-        <v>-9.5000000000000001E-2</v>
+        <v>4.0000000000000001E-3</v>
       </c>
       <c r="D46" s="17">
-        <v>-9.5000000000000001E-2</v>
+        <v>-0.154</v>
       </c>
       <c r="E46" s="9">
-        <v>684</v>
+        <v>678</v>
       </c>
       <c r="F46" s="10">
-        <v>-1.9E-2</v>
+        <v>-0.01</v>
       </c>
       <c r="G46" s="10">
-        <v>-0.105</v>
+        <v>-0.104</v>
       </c>
       <c r="H46" s="16">
-        <v>5008</v>
+        <v>5246</v>
       </c>
       <c r="I46" s="10">
-        <v>-3.2000000000000001E-2</v>
+        <v>4.8000000000000001E-2</v>
       </c>
       <c r="J46" s="10">
-        <v>3.4000000000000002E-2</v>
+        <v>7.9000000000000001E-2</v>
       </c>
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A47" s="21">
-        <v>42552</v>
+        <v>42583</v>
       </c>
       <c r="B47" s="9">
-        <v>3224</v>
+        <v>3408</v>
       </c>
       <c r="C47" s="10">
-        <v>4.0000000000000001E-3</v>
+        <v>5.7000000000000002E-2</v>
       </c>
       <c r="D47" s="17">
-        <v>-0.154</v>
+        <v>-0.124</v>
       </c>
       <c r="E47" s="9">
-        <v>678</v>
+        <v>666</v>
       </c>
       <c r="F47" s="10">
-        <v>-0.01</v>
+        <v>-1.7999999999999999E-2</v>
       </c>
       <c r="G47" s="10">
-        <v>-0.104</v>
+        <v>-0.121</v>
       </c>
       <c r="H47" s="16">
-        <v>5246</v>
+        <v>5154</v>
       </c>
       <c r="I47" s="10">
-        <v>4.8000000000000001E-2</v>
+        <v>-1.7999999999999999E-2</v>
       </c>
       <c r="J47" s="10">
-        <v>7.9000000000000001E-2</v>
+        <v>6.8000000000000005E-2</v>
       </c>
     </row>
     <row r="48" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A48" s="21">
-        <v>42583</v>
-      </c>
-      <c r="B48" s="9">
-        <v>3408</v>
-      </c>
-      <c r="C48" s="10">
-        <v>5.7000000000000002E-2</v>
-      </c>
-      <c r="D48" s="17">
-        <v>-0.124</v>
-      </c>
-      <c r="E48" s="9">
-        <v>666</v>
-      </c>
-      <c r="F48" s="10">
-        <v>-1.7999999999999999E-2</v>
-      </c>
-      <c r="G48" s="10">
-        <v>-0.121</v>
-      </c>
-      <c r="H48" s="16">
-        <v>5154</v>
-      </c>
-      <c r="I48" s="10">
-        <v>-1.7999999999999999E-2</v>
-      </c>
-      <c r="J48" s="10">
-        <v>6.8000000000000005E-2</v>
+        <v>42614</v>
+      </c>
+      <c r="B48" s="11">
+        <v>3230</v>
+      </c>
+      <c r="C48" s="12">
+        <v>-5.1999999999999998E-2</v>
+      </c>
+      <c r="D48" s="19">
+        <v>-0.17499999999999999</v>
+      </c>
+      <c r="E48" s="11">
+        <v>662</v>
+      </c>
+      <c r="F48" s="20">
+        <v>-5.0000000000000001E-3</v>
+      </c>
+      <c r="G48" s="20">
+        <v>-0.11700000000000001</v>
+      </c>
+      <c r="H48" s="18">
+        <v>5077</v>
+      </c>
+      <c r="I48" s="20">
+        <v>-1.4999999999999999E-2</v>
+      </c>
+      <c r="J48" s="20">
+        <v>4.5999999999999999E-2</v>
       </c>
     </row>
     <row r="49" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A49" s="21">
-        <v>42614</v>
+        <v>42644</v>
       </c>
       <c r="B49" s="11">
-        <v>3211</v>
+        <v>3340</v>
       </c>
       <c r="C49" s="12">
-        <v>-5.8000000000000003E-2</v>
+        <v>3.4000000000000002E-2</v>
       </c>
       <c r="D49" s="19">
-        <v>-0.18</v>
+        <v>-7.5999999999999998E-2</v>
       </c>
       <c r="E49" s="11">
-        <v>662</v>
+        <v>652</v>
       </c>
       <c r="F49" s="20">
-        <v>-6.0000000000000001E-3</v>
+        <v>-1.4999999999999999E-2</v>
       </c>
       <c r="G49" s="20">
-        <v>-0.11700000000000001</v>
+        <v>-0.123</v>
       </c>
       <c r="H49" s="18">
-        <v>5094</v>
+        <v>4997</v>
       </c>
       <c r="I49" s="20">
-        <v>-1.2E-2</v>
+        <v>-1.6E-2</v>
       </c>
       <c r="J49" s="20">
-        <v>0.05</v>
+        <v>3.5999999999999997E-2</v>
       </c>
     </row>
     <row r="50" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A50" s="21">
-        <v>42644</v>
+        <v>42675</v>
       </c>
       <c r="B50" s="11">
-        <v>3272</v>
+        <v>3395</v>
       </c>
       <c r="C50" s="12">
-        <v>1.9E-2</v>
+        <v>1.6E-2</v>
       </c>
       <c r="D50" s="19">
-        <v>-9.5000000000000001E-2</v>
+        <v>-2.1000000000000001E-2</v>
       </c>
       <c r="E50" s="11">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="F50" s="20">
-        <v>-1.4999999999999999E-2</v>
+        <v>-2E-3</v>
       </c>
       <c r="G50" s="20">
-        <v>-0.123</v>
+        <v>-0.10100000000000001</v>
       </c>
       <c r="H50" s="18">
-        <v>5002</v>
+        <v>5082</v>
       </c>
       <c r="I50" s="20">
-        <v>-1.7999999999999999E-2</v>
+        <v>1.7000000000000001E-2</v>
       </c>
       <c r="J50" s="20">
-        <v>3.6999999999999998E-2</v>
+        <v>4.7E-2</v>
       </c>
     </row>
     <row r="52" spans="1:10" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -2343,418 +2345,418 @@
     </row>
     <row r="54" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A54" s="21">
-        <v>42278</v>
+        <v>42309</v>
       </c>
       <c r="B54" s="9">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="C54" s="10">
-        <v>2.1000000000000001E-2</v>
+        <v>-2.3E-2</v>
       </c>
       <c r="D54" s="17">
-        <v>-1.7999999999999999E-2</v>
+        <v>-1.7000000000000001E-2</v>
       </c>
       <c r="E54" s="9">
-        <v>3646</v>
+        <v>3627</v>
       </c>
       <c r="F54" s="10">
-        <v>-1.2E-2</v>
+        <v>-5.0000000000000001E-3</v>
       </c>
       <c r="G54" s="10">
-        <v>0.05</v>
+        <v>2.8000000000000001E-2</v>
       </c>
       <c r="H54" s="16">
-        <v>1657</v>
+        <v>1676</v>
       </c>
       <c r="I54" s="10">
-        <v>3.4000000000000002E-2</v>
+        <v>1.2E-2</v>
       </c>
       <c r="J54" s="10">
-        <v>0.153</v>
+        <v>0.16600000000000001</v>
       </c>
     </row>
     <row r="55" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A55" s="21">
-        <v>42309</v>
+        <v>42339</v>
       </c>
       <c r="B55" s="9">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="C55" s="10">
         <v>-2.3E-2</v>
       </c>
       <c r="D55" s="17">
-        <v>-1.7000000000000001E-2</v>
+        <v>-9.9000000000000005E-2</v>
       </c>
       <c r="E55" s="9">
-        <v>3627</v>
+        <v>3328</v>
       </c>
       <c r="F55" s="10">
-        <v>-5.0000000000000001E-3</v>
+        <v>-8.3000000000000004E-2</v>
       </c>
       <c r="G55" s="10">
-        <v>2.8000000000000001E-2</v>
+        <v>-5.0999999999999997E-2</v>
       </c>
       <c r="H55" s="16">
-        <v>1676</v>
+        <v>1671</v>
       </c>
       <c r="I55" s="10">
-        <v>1.2E-2</v>
+        <v>-3.0000000000000001E-3</v>
       </c>
       <c r="J55" s="10">
-        <v>0.16600000000000001</v>
+        <v>0.10199999999999999</v>
       </c>
     </row>
     <row r="56" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A56" s="21">
-        <v>42339</v>
+        <v>42370</v>
       </c>
       <c r="B56" s="9">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="C56" s="10">
-        <v>-2.3E-2</v>
+        <v>-1.9E-2</v>
       </c>
       <c r="D56" s="17">
         <v>-9.9000000000000005E-2</v>
       </c>
       <c r="E56" s="9">
-        <v>3328</v>
+        <v>3227</v>
       </c>
       <c r="F56" s="10">
-        <v>-8.3000000000000004E-2</v>
+        <v>-0.03</v>
       </c>
       <c r="G56" s="10">
-        <v>-5.0999999999999997E-2</v>
+        <v>-3.2000000000000001E-2</v>
       </c>
       <c r="H56" s="16">
-        <v>1671</v>
+        <v>1618</v>
       </c>
       <c r="I56" s="10">
-        <v>-3.0000000000000001E-3</v>
+        <v>-3.2000000000000001E-2</v>
       </c>
       <c r="J56" s="10">
-        <v>0.10199999999999999</v>
+        <v>9.6000000000000002E-2</v>
       </c>
     </row>
     <row r="57" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A57" s="21">
-        <v>42370</v>
+        <v>42401</v>
       </c>
       <c r="B57" s="9">
         <v>146</v>
       </c>
       <c r="C57" s="10">
-        <v>-1.9E-2</v>
+        <v>1E-3</v>
       </c>
       <c r="D57" s="17">
-        <v>-9.9000000000000005E-2</v>
+        <v>-0.107</v>
       </c>
       <c r="E57" s="9">
-        <v>3227</v>
+        <v>3444</v>
       </c>
       <c r="F57" s="10">
-        <v>-0.03</v>
+        <v>6.7000000000000004E-2</v>
       </c>
       <c r="G57" s="10">
-        <v>-3.2000000000000001E-2</v>
+        <v>-1.6E-2</v>
       </c>
       <c r="H57" s="16">
-        <v>1618</v>
+        <v>1652</v>
       </c>
       <c r="I57" s="10">
-        <v>-3.2000000000000001E-2</v>
+        <v>2.1000000000000001E-2</v>
       </c>
       <c r="J57" s="10">
-        <v>9.6000000000000002E-2</v>
+        <v>0.11700000000000001</v>
       </c>
     </row>
     <row r="58" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A58" s="21">
-        <v>42401</v>
+        <v>42430</v>
       </c>
       <c r="B58" s="9">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="C58" s="10">
-        <v>1E-3</v>
+        <v>-2.1999999999999999E-2</v>
       </c>
       <c r="D58" s="17">
-        <v>-0.107</v>
+        <v>-9.1999999999999998E-2</v>
       </c>
       <c r="E58" s="9">
-        <v>3444</v>
+        <v>3520</v>
       </c>
       <c r="F58" s="10">
-        <v>6.7000000000000004E-2</v>
+        <v>2.1999999999999999E-2</v>
       </c>
       <c r="G58" s="10">
-        <v>-1.6E-2</v>
+        <v>-8.0000000000000002E-3</v>
       </c>
       <c r="H58" s="16">
-        <v>1652</v>
+        <v>1673</v>
       </c>
       <c r="I58" s="10">
-        <v>2.1000000000000001E-2</v>
+        <v>1.2E-2</v>
       </c>
       <c r="J58" s="10">
-        <v>0.11700000000000001</v>
+        <v>9.6000000000000002E-2</v>
       </c>
     </row>
     <row r="59" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A59" s="21">
-        <v>42430</v>
+        <v>42461</v>
       </c>
       <c r="B59" s="9">
         <v>143</v>
       </c>
       <c r="C59" s="10">
-        <v>-2.1999999999999999E-2</v>
+        <v>-2E-3</v>
       </c>
       <c r="D59" s="17">
-        <v>-9.1999999999999998E-2</v>
+        <v>-0.129</v>
       </c>
       <c r="E59" s="9">
-        <v>3520</v>
+        <v>3561</v>
       </c>
       <c r="F59" s="10">
-        <v>2.1999999999999999E-2</v>
+        <v>1.2E-2</v>
       </c>
       <c r="G59" s="10">
-        <v>-8.0000000000000002E-3</v>
+        <v>-8.9999999999999993E-3</v>
       </c>
       <c r="H59" s="16">
-        <v>1673</v>
+        <v>1584</v>
       </c>
       <c r="I59" s="10">
-        <v>1.2E-2</v>
+        <v>-5.2999999999999999E-2</v>
       </c>
       <c r="J59" s="10">
-        <v>9.6000000000000002E-2</v>
+        <v>3.1E-2</v>
       </c>
     </row>
     <row r="60" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A60" s="21">
-        <v>42461</v>
+        <v>42491</v>
       </c>
       <c r="B60" s="9">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="C60" s="10">
-        <v>-2E-3</v>
+        <v>0.01</v>
       </c>
       <c r="D60" s="17">
-        <v>-0.129</v>
+        <v>-0.107</v>
       </c>
       <c r="E60" s="9">
-        <v>3561</v>
+        <v>3537</v>
       </c>
       <c r="F60" s="10">
-        <v>1.2E-2</v>
+        <v>-7.0000000000000001E-3</v>
       </c>
       <c r="G60" s="10">
-        <v>-8.9999999999999993E-3</v>
+        <v>-1.9E-2</v>
       </c>
       <c r="H60" s="16">
-        <v>1584</v>
+        <v>1652</v>
       </c>
       <c r="I60" s="10">
-        <v>-5.2999999999999999E-2</v>
+        <v>4.2999999999999997E-2</v>
       </c>
       <c r="J60" s="10">
-        <v>3.1E-2</v>
+        <v>1.2999999999999999E-2</v>
       </c>
     </row>
     <row r="61" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A61" s="21">
-        <v>42491</v>
+        <v>42522</v>
       </c>
       <c r="B61" s="9">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C61" s="10">
+        <v>-8.0000000000000002E-3</v>
+      </c>
+      <c r="D61" s="17">
+        <v>-0.104</v>
+      </c>
+      <c r="E61" s="9">
+        <v>3531</v>
+      </c>
+      <c r="F61" s="10">
+        <v>-2E-3</v>
+      </c>
+      <c r="G61" s="10">
+        <v>-1.4E-2</v>
+      </c>
+      <c r="H61" s="16">
+        <v>1668</v>
+      </c>
+      <c r="I61" s="10">
         <v>0.01</v>
       </c>
-      <c r="D61" s="17">
-        <v>-0.107</v>
-      </c>
-      <c r="E61" s="9">
-        <v>3537</v>
-      </c>
-      <c r="F61" s="10">
-        <v>-7.0000000000000001E-3</v>
-      </c>
-      <c r="G61" s="10">
-        <v>-1.9E-2</v>
-      </c>
-      <c r="H61" s="16">
-        <v>1652</v>
-      </c>
-      <c r="I61" s="10">
-        <v>4.2999999999999997E-2</v>
-      </c>
       <c r="J61" s="10">
-        <v>1.2999999999999999E-2</v>
+        <v>8.0000000000000002E-3</v>
       </c>
     </row>
     <row r="62" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A62" s="21">
-        <v>42522</v>
+        <v>42552</v>
       </c>
       <c r="B62" s="9">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="C62" s="10">
-        <v>-8.0000000000000002E-3</v>
+        <v>-2.5999999999999999E-2</v>
       </c>
       <c r="D62" s="17">
-        <v>-0.104</v>
+        <v>-0.127</v>
       </c>
       <c r="E62" s="9">
-        <v>3531</v>
+        <v>3579</v>
       </c>
       <c r="F62" s="10">
-        <v>-2E-3</v>
+        <v>1.4E-2</v>
       </c>
       <c r="G62" s="10">
-        <v>-1.4E-2</v>
+        <v>1.4E-2</v>
       </c>
       <c r="H62" s="16">
-        <v>1668</v>
+        <v>1700</v>
       </c>
       <c r="I62" s="10">
-        <v>0.01</v>
+        <v>1.9E-2</v>
       </c>
       <c r="J62" s="10">
-        <v>8.0000000000000002E-3</v>
+        <v>2.5000000000000001E-2</v>
       </c>
     </row>
     <row r="63" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A63" s="21">
-        <v>42552</v>
+        <v>42583</v>
       </c>
       <c r="B63" s="9">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="C63" s="10">
-        <v>-2.5999999999999999E-2</v>
+        <v>-3.5999999999999997E-2</v>
       </c>
       <c r="D63" s="17">
-        <v>-0.127</v>
+        <v>-0.126</v>
       </c>
       <c r="E63" s="9">
-        <v>3579</v>
+        <v>3593</v>
       </c>
       <c r="F63" s="10">
-        <v>1.4E-2</v>
+        <v>4.0000000000000001E-3</v>
       </c>
       <c r="G63" s="10">
-        <v>1.4E-2</v>
+        <v>-1.4E-2</v>
       </c>
       <c r="H63" s="16">
-        <v>1700</v>
+        <v>1651</v>
       </c>
       <c r="I63" s="10">
-        <v>1.9E-2</v>
+        <v>-2.9000000000000001E-2</v>
       </c>
       <c r="J63" s="10">
-        <v>2.5000000000000001E-2</v>
+        <v>3.0000000000000001E-3</v>
       </c>
     </row>
     <row r="64" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A64" s="21">
-        <v>42583</v>
-      </c>
-      <c r="B64" s="9">
-        <v>134</v>
-      </c>
-      <c r="C64" s="10">
-        <v>-3.5999999999999997E-2</v>
-      </c>
-      <c r="D64" s="17">
-        <v>-0.126</v>
-      </c>
-      <c r="E64" s="9">
-        <v>3593</v>
-      </c>
-      <c r="F64" s="10">
+        <v>42614</v>
+      </c>
+      <c r="B64" s="11">
+        <v>136</v>
+      </c>
+      <c r="C64" s="12">
+        <v>1.7000000000000001E-2</v>
+      </c>
+      <c r="D64" s="19">
+        <v>-0.105</v>
+      </c>
+      <c r="E64" s="11">
+        <v>3587</v>
+      </c>
+      <c r="F64" s="20">
+        <v>-2E-3</v>
+      </c>
+      <c r="G64" s="20">
+        <v>-2.8000000000000001E-2</v>
+      </c>
+      <c r="H64" s="18">
+        <v>1610</v>
+      </c>
+      <c r="I64" s="20">
+        <v>-2.5000000000000001E-2</v>
+      </c>
+      <c r="J64" s="20">
         <v>4.0000000000000001E-3</v>
-      </c>
-      <c r="G64" s="10">
-        <v>-1.4E-2</v>
-      </c>
-      <c r="H64" s="16">
-        <v>1651</v>
-      </c>
-      <c r="I64" s="10">
-        <v>-2.9000000000000001E-2</v>
-      </c>
-      <c r="J64" s="10">
-        <v>3.0000000000000001E-3</v>
       </c>
     </row>
     <row r="65" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A65" s="21">
-        <v>42614</v>
+        <v>42644</v>
       </c>
       <c r="B65" s="11">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C65" s="12">
-        <v>0.02</v>
+        <v>-7.0000000000000001E-3</v>
       </c>
       <c r="D65" s="19">
-        <v>-0.10199999999999999</v>
+        <v>-0.13</v>
       </c>
       <c r="E65" s="11">
-        <v>3591</v>
+        <v>3541</v>
       </c>
       <c r="F65" s="20">
-        <v>-1E-3</v>
+        <v>-1.2999999999999999E-2</v>
       </c>
       <c r="G65" s="20">
-        <v>-2.5999999999999999E-2</v>
+        <v>-2.9000000000000001E-2</v>
       </c>
       <c r="H65" s="18">
-        <v>1611</v>
+        <v>1716</v>
       </c>
       <c r="I65" s="20">
-        <v>-2.4E-2</v>
+        <v>6.6000000000000003E-2</v>
       </c>
       <c r="J65" s="20">
-        <v>5.0000000000000001E-3</v>
+        <v>3.5000000000000003E-2</v>
       </c>
     </row>
     <row r="66" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A66" s="21">
-        <v>42644</v>
+        <v>42675</v>
       </c>
       <c r="B66" s="11">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="C66" s="12">
-        <v>-7.0000000000000001E-3</v>
+        <v>2.3E-2</v>
       </c>
       <c r="D66" s="19">
-        <v>-0.127</v>
+        <v>-8.7999999999999995E-2</v>
       </c>
       <c r="E66" s="11">
-        <v>3544</v>
+        <v>3640</v>
       </c>
       <c r="F66" s="20">
-        <v>-1.2999999999999999E-2</v>
+        <v>2.8000000000000001E-2</v>
       </c>
       <c r="G66" s="20">
-        <v>-2.8000000000000001E-2</v>
+        <v>3.0000000000000001E-3</v>
       </c>
       <c r="H66" s="18">
-        <v>1717</v>
+        <v>1767</v>
       </c>
       <c r="I66" s="20">
-        <v>6.6000000000000003E-2</v>
+        <v>0.03</v>
       </c>
       <c r="J66" s="20">
-        <v>3.5999999999999997E-2</v>
+        <v>5.3999999999999999E-2</v>
       </c>
     </row>
     <row r="68" spans="1:10" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -2809,418 +2811,418 @@
     </row>
     <row r="70" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A70" s="21">
-        <v>42278</v>
+        <v>42309</v>
       </c>
       <c r="B70" s="9">
-        <v>3359</v>
+        <v>3491</v>
       </c>
       <c r="C70" s="10">
-        <v>0.128</v>
+        <v>3.9E-2</v>
       </c>
       <c r="D70" s="17">
-        <v>0.71699999999999997</v>
+        <v>0.78400000000000003</v>
       </c>
       <c r="E70" s="9">
-        <v>6753</v>
+        <v>6717</v>
       </c>
       <c r="F70" s="10">
-        <v>-8.0000000000000002E-3</v>
+        <v>-5.0000000000000001E-3</v>
       </c>
       <c r="G70" s="10">
-        <v>3.1E-2</v>
+        <v>2.5000000000000001E-2</v>
       </c>
       <c r="H70" s="16">
-        <v>13137</v>
+        <v>13645</v>
       </c>
       <c r="I70" s="10">
-        <v>-0.01</v>
+        <v>3.9E-2</v>
       </c>
       <c r="J70" s="10">
-        <v>8.6999999999999994E-2</v>
+        <v>0.129</v>
       </c>
     </row>
     <row r="71" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A71" s="21">
-        <v>42309</v>
+        <v>42339</v>
       </c>
       <c r="B71" s="9">
-        <v>3491</v>
+        <v>3651</v>
       </c>
       <c r="C71" s="10">
-        <v>3.9E-2</v>
+        <v>4.5999999999999999E-2</v>
       </c>
       <c r="D71" s="17">
-        <v>0.78400000000000003</v>
+        <v>0.86599999999999999</v>
       </c>
       <c r="E71" s="9">
-        <v>6717</v>
+        <v>6700</v>
       </c>
       <c r="F71" s="10">
-        <v>-5.0000000000000001E-3</v>
+        <v>-3.0000000000000001E-3</v>
       </c>
       <c r="G71" s="10">
-        <v>2.5000000000000001E-2</v>
+        <v>0.03</v>
       </c>
       <c r="H71" s="16">
-        <v>13645</v>
+        <v>13993</v>
       </c>
       <c r="I71" s="10">
-        <v>3.9E-2</v>
+        <v>2.5999999999999999E-2</v>
       </c>
       <c r="J71" s="10">
-        <v>0.129</v>
+        <v>0.157</v>
       </c>
     </row>
     <row r="72" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A72" s="21">
-        <v>42339</v>
+        <v>42370</v>
       </c>
       <c r="B72" s="9">
-        <v>3651</v>
+        <v>3627</v>
       </c>
       <c r="C72" s="10">
-        <v>4.5999999999999999E-2</v>
+        <v>-7.0000000000000001E-3</v>
       </c>
       <c r="D72" s="17">
-        <v>0.86599999999999999</v>
+        <v>0.755</v>
       </c>
       <c r="E72" s="9">
-        <v>6700</v>
+        <v>6903</v>
       </c>
       <c r="F72" s="10">
-        <v>-3.0000000000000001E-3</v>
+        <v>0.03</v>
       </c>
       <c r="G72" s="10">
-        <v>0.03</v>
+        <v>3.5000000000000003E-2</v>
       </c>
       <c r="H72" s="16">
-        <v>13993</v>
+        <v>14434</v>
       </c>
       <c r="I72" s="10">
-        <v>2.5999999999999999E-2</v>
+        <v>3.1E-2</v>
       </c>
       <c r="J72" s="10">
-        <v>0.157</v>
+        <v>9.7000000000000003E-2</v>
       </c>
     </row>
     <row r="73" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A73" s="21">
-        <v>42370</v>
+        <v>42401</v>
       </c>
       <c r="B73" s="9">
-        <v>3627</v>
+        <v>4014</v>
       </c>
       <c r="C73" s="10">
-        <v>-7.0000000000000001E-3</v>
+        <v>0.107</v>
       </c>
       <c r="D73" s="17">
-        <v>0.755</v>
+        <v>0.86799999999999999</v>
       </c>
       <c r="E73" s="9">
-        <v>6903</v>
+        <v>6940</v>
       </c>
       <c r="F73" s="10">
-        <v>0.03</v>
+        <v>5.0000000000000001E-3</v>
       </c>
       <c r="G73" s="10">
-        <v>3.5000000000000003E-2</v>
+        <v>4.1000000000000002E-2</v>
       </c>
       <c r="H73" s="16">
-        <v>14434</v>
+        <v>14855</v>
       </c>
       <c r="I73" s="10">
-        <v>3.1E-2</v>
+        <v>2.9000000000000001E-2</v>
       </c>
       <c r="J73" s="10">
-        <v>9.7000000000000003E-2</v>
+        <v>0.122</v>
       </c>
     </row>
     <row r="74" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A74" s="21">
-        <v>42401</v>
+        <v>42430</v>
       </c>
       <c r="B74" s="9">
-        <v>4014</v>
+        <v>3895</v>
       </c>
       <c r="C74" s="10">
-        <v>0.107</v>
+        <v>-2.9000000000000001E-2</v>
       </c>
       <c r="D74" s="17">
-        <v>0.86799999999999999</v>
+        <v>0.73599999999999999</v>
       </c>
       <c r="E74" s="9">
-        <v>6940</v>
+        <v>6921</v>
       </c>
       <c r="F74" s="10">
-        <v>5.0000000000000001E-3</v>
+        <v>-3.0000000000000001E-3</v>
       </c>
       <c r="G74" s="10">
-        <v>4.1000000000000002E-2</v>
+        <v>-7.0000000000000001E-3</v>
       </c>
       <c r="H74" s="16">
-        <v>14855</v>
+        <v>14600</v>
       </c>
       <c r="I74" s="10">
-        <v>2.9000000000000001E-2</v>
+        <v>-1.7000000000000001E-2</v>
       </c>
       <c r="J74" s="10">
-        <v>0.122</v>
+        <v>9.5000000000000001E-2</v>
       </c>
     </row>
     <row r="75" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A75" s="21">
-        <v>42430</v>
+        <v>42461</v>
       </c>
       <c r="B75" s="9">
-        <v>3895</v>
+        <v>3965</v>
       </c>
       <c r="C75" s="10">
-        <v>-2.9000000000000001E-2</v>
+        <v>1.7999999999999999E-2</v>
       </c>
       <c r="D75" s="17">
-        <v>0.73599999999999999</v>
+        <v>0.68</v>
       </c>
       <c r="E75" s="9">
-        <v>6921</v>
+        <v>6784</v>
       </c>
       <c r="F75" s="10">
-        <v>-3.0000000000000001E-3</v>
+        <v>-0.02</v>
       </c>
       <c r="G75" s="10">
-        <v>-7.0000000000000001E-3</v>
+        <v>-3.1E-2</v>
       </c>
       <c r="H75" s="16">
-        <v>14600</v>
+        <v>14317</v>
       </c>
       <c r="I75" s="10">
-        <v>-1.7000000000000001E-2</v>
+        <v>-1.9E-2</v>
       </c>
       <c r="J75" s="10">
-        <v>9.5000000000000001E-2</v>
+        <v>9.4E-2</v>
       </c>
     </row>
     <row r="76" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A76" s="21">
-        <v>42461</v>
+        <v>42491</v>
       </c>
       <c r="B76" s="9">
-        <v>3965</v>
+        <v>3928</v>
       </c>
       <c r="C76" s="10">
-        <v>1.7999999999999999E-2</v>
+        <v>-8.9999999999999993E-3</v>
       </c>
       <c r="D76" s="17">
-        <v>0.68</v>
+        <v>0.56399999999999995</v>
       </c>
       <c r="E76" s="9">
-        <v>6784</v>
+        <v>6833</v>
       </c>
       <c r="F76" s="10">
-        <v>-0.02</v>
+        <v>7.0000000000000001E-3</v>
       </c>
       <c r="G76" s="10">
-        <v>-3.1E-2</v>
+        <v>-1.2999999999999999E-2</v>
       </c>
       <c r="H76" s="16">
-        <v>14317</v>
+        <v>14257</v>
       </c>
       <c r="I76" s="10">
-        <v>-1.9E-2</v>
+        <v>-4.0000000000000001E-3</v>
       </c>
       <c r="J76" s="10">
-        <v>9.4E-2</v>
+        <v>0.129</v>
       </c>
     </row>
     <row r="77" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A77" s="21">
-        <v>42491</v>
+        <v>42522</v>
       </c>
       <c r="B77" s="9">
-        <v>3928</v>
+        <v>3840</v>
       </c>
       <c r="C77" s="10">
-        <v>-8.9999999999999993E-3</v>
+        <v>-2.1999999999999999E-2</v>
       </c>
       <c r="D77" s="17">
-        <v>0.56399999999999995</v>
+        <v>0.36</v>
       </c>
       <c r="E77" s="9">
-        <v>6833</v>
+        <v>6736</v>
       </c>
       <c r="F77" s="10">
-        <v>7.0000000000000001E-3</v>
+        <v>-1.4E-2</v>
       </c>
       <c r="G77" s="10">
-        <v>-1.2999999999999999E-2</v>
+        <v>-4.2999999999999997E-2</v>
       </c>
       <c r="H77" s="16">
-        <v>14257</v>
+        <v>14494</v>
       </c>
       <c r="I77" s="10">
-        <v>-4.0000000000000001E-3</v>
+        <v>1.7000000000000001E-2</v>
       </c>
       <c r="J77" s="10">
-        <v>0.129</v>
+        <v>0.154</v>
       </c>
     </row>
     <row r="78" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A78" s="21">
-        <v>42522</v>
+        <v>42552</v>
       </c>
       <c r="B78" s="9">
-        <v>3840</v>
+        <v>3801</v>
       </c>
       <c r="C78" s="10">
-        <v>-2.1999999999999999E-2</v>
+        <v>-0.01</v>
       </c>
       <c r="D78" s="17">
-        <v>0.36</v>
+        <v>0.33300000000000002</v>
       </c>
       <c r="E78" s="9">
-        <v>6736</v>
+        <v>6794</v>
       </c>
       <c r="F78" s="10">
-        <v>-1.4E-2</v>
+        <v>8.9999999999999993E-3</v>
       </c>
       <c r="G78" s="10">
-        <v>-4.2999999999999997E-2</v>
+        <v>-3.3000000000000002E-2</v>
       </c>
       <c r="H78" s="16">
-        <v>14494</v>
+        <v>14312</v>
       </c>
       <c r="I78" s="10">
-        <v>1.7000000000000001E-2</v>
+        <v>-1.2999999999999999E-2</v>
       </c>
       <c r="J78" s="10">
-        <v>0.154</v>
+        <v>0.104</v>
       </c>
     </row>
     <row r="79" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A79" s="21">
-        <v>42552</v>
+        <v>42583</v>
       </c>
       <c r="B79" s="9">
-        <v>3801</v>
+        <v>4279</v>
       </c>
       <c r="C79" s="10">
-        <v>-0.01</v>
+        <v>0.126</v>
       </c>
       <c r="D79" s="17">
-        <v>0.33300000000000002</v>
+        <v>0.50900000000000001</v>
       </c>
       <c r="E79" s="9">
-        <v>6794</v>
+        <v>6813</v>
       </c>
       <c r="F79" s="10">
-        <v>8.9999999999999993E-3</v>
+        <v>3.0000000000000001E-3</v>
       </c>
       <c r="G79" s="10">
-        <v>-3.3000000000000002E-2</v>
+        <v>-1.0999999999999999E-2</v>
       </c>
       <c r="H79" s="16">
-        <v>14312</v>
+        <v>14310</v>
       </c>
       <c r="I79" s="10">
-        <v>-1.2999999999999999E-2</v>
+        <v>0</v>
       </c>
       <c r="J79" s="10">
-        <v>0.104</v>
+        <v>8.3000000000000004E-2</v>
       </c>
     </row>
     <row r="80" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A80" s="21">
-        <v>42583</v>
-      </c>
-      <c r="B80" s="9">
-        <v>4279</v>
-      </c>
-      <c r="C80" s="10">
-        <v>0.126</v>
-      </c>
-      <c r="D80" s="17">
-        <v>0.50900000000000001</v>
-      </c>
-      <c r="E80" s="9">
-        <v>6813</v>
-      </c>
-      <c r="F80" s="10">
-        <v>3.0000000000000001E-3</v>
-      </c>
-      <c r="G80" s="10">
+        <v>42614</v>
+      </c>
+      <c r="B80" s="11">
+        <v>4380</v>
+      </c>
+      <c r="C80" s="12">
+        <v>2.4E-2</v>
+      </c>
+      <c r="D80" s="19">
+        <v>0.47</v>
+      </c>
+      <c r="E80" s="11">
+        <v>6740</v>
+      </c>
+      <c r="F80" s="20">
         <v>-1.0999999999999999E-2</v>
       </c>
-      <c r="H80" s="16">
-        <v>14310</v>
-      </c>
-      <c r="I80" s="10">
-        <v>0</v>
-      </c>
-      <c r="J80" s="10">
-        <v>8.3000000000000004E-2</v>
+      <c r="G80" s="20">
+        <v>-0.01</v>
+      </c>
+      <c r="H80" s="18">
+        <v>13968</v>
+      </c>
+      <c r="I80" s="20">
+        <v>-2.4E-2</v>
+      </c>
+      <c r="J80" s="20">
+        <v>5.2999999999999999E-2</v>
       </c>
     </row>
     <row r="81" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A81" s="21">
-        <v>42614</v>
+        <v>42644</v>
       </c>
       <c r="B81" s="11">
-        <v>4380</v>
+        <v>4094</v>
       </c>
       <c r="C81" s="12">
-        <v>2.4E-2</v>
+        <v>-6.5000000000000002E-2</v>
       </c>
       <c r="D81" s="19">
-        <v>0.47</v>
+        <v>0.219</v>
       </c>
       <c r="E81" s="11">
-        <v>6766</v>
+        <v>6679</v>
       </c>
       <c r="F81" s="20">
-        <v>-7.0000000000000001E-3</v>
+        <v>-8.9999999999999993E-3</v>
       </c>
       <c r="G81" s="20">
-        <v>-6.0000000000000001E-3</v>
+        <v>-1.0999999999999999E-2</v>
       </c>
       <c r="H81" s="18">
-        <v>13968</v>
+        <v>13605</v>
       </c>
       <c r="I81" s="20">
-        <v>-2.4E-2</v>
+        <v>-2.5999999999999999E-2</v>
       </c>
       <c r="J81" s="20">
-        <v>5.2999999999999999E-2</v>
+        <v>3.5999999999999997E-2</v>
       </c>
     </row>
     <row r="82" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A82" s="21">
-        <v>42644</v>
+        <v>42675</v>
       </c>
       <c r="B82" s="11">
-        <v>4093</v>
+        <v>4149</v>
       </c>
       <c r="C82" s="12">
-        <v>-6.5000000000000002E-2</v>
+        <v>1.2999999999999999E-2</v>
       </c>
       <c r="D82" s="19">
-        <v>0.219</v>
+        <v>0.188</v>
       </c>
       <c r="E82" s="11">
-        <v>6734</v>
+        <v>6580</v>
       </c>
       <c r="F82" s="20">
-        <v>-5.0000000000000001E-3</v>
+        <v>-1.4999999999999999E-2</v>
       </c>
       <c r="G82" s="20">
-        <v>-3.0000000000000001E-3</v>
+        <v>-0.02</v>
       </c>
       <c r="H82" s="18">
-        <v>13606</v>
+        <v>14560</v>
       </c>
       <c r="I82" s="20">
-        <v>-2.5999999999999999E-2</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="J82" s="20">
-        <v>3.5999999999999997E-2</v>
+        <v>6.7000000000000004E-2</v>
       </c>
     </row>
     <row r="84" spans="1:10" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -3275,418 +3277,418 @@
     </row>
     <row r="86" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A86" s="21">
-        <v>42278</v>
+        <v>42309</v>
       </c>
       <c r="B86" s="9">
-        <v>23858</v>
+        <v>23769</v>
       </c>
       <c r="C86" s="10">
-        <v>-2.1000000000000001E-2</v>
+        <v>-4.0000000000000001E-3</v>
       </c>
       <c r="D86" s="17">
-        <v>-1.2999999999999999E-2</v>
+        <v>-1.7999999999999999E-2</v>
       </c>
       <c r="E86" s="9">
-        <v>1021</v>
+        <v>1030</v>
       </c>
       <c r="F86" s="10">
-        <v>-1.4999999999999999E-2</v>
+        <v>8.9999999999999993E-3</v>
       </c>
       <c r="G86" s="10">
-        <v>-0.15</v>
+        <v>-0.13900000000000001</v>
       </c>
       <c r="H86" s="16">
-        <v>3507</v>
+        <v>3228</v>
       </c>
       <c r="I86" s="10">
-        <v>-0.06</v>
+        <v>-0.08</v>
       </c>
       <c r="J86" s="10">
-        <v>7.0000000000000007E-2</v>
+        <v>-1.2E-2</v>
       </c>
     </row>
     <row r="87" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A87" s="21">
-        <v>42309</v>
+        <v>42339</v>
       </c>
       <c r="B87" s="9">
-        <v>23769</v>
+        <v>23235</v>
       </c>
       <c r="C87" s="10">
-        <v>-4.0000000000000001E-3</v>
+        <v>-2.1999999999999999E-2</v>
       </c>
       <c r="D87" s="17">
-        <v>-1.7999999999999999E-2</v>
+        <v>-5.8999999999999997E-2</v>
       </c>
       <c r="E87" s="9">
-        <v>1030</v>
+        <v>1105</v>
       </c>
       <c r="F87" s="10">
-        <v>8.9999999999999993E-3</v>
+        <v>7.2999999999999995E-2</v>
       </c>
       <c r="G87" s="10">
-        <v>-0.13900000000000001</v>
+        <v>-6.6000000000000003E-2</v>
       </c>
       <c r="H87" s="16">
-        <v>3228</v>
+        <v>3403</v>
       </c>
       <c r="I87" s="10">
-        <v>-0.08</v>
+        <v>5.3999999999999999E-2</v>
       </c>
       <c r="J87" s="10">
-        <v>-1.2E-2</v>
+        <v>-2.1000000000000001E-2</v>
       </c>
     </row>
     <row r="88" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A88" s="21">
-        <v>42339</v>
+        <v>42370</v>
       </c>
       <c r="B88" s="9">
-        <v>23235</v>
+        <v>22823</v>
       </c>
       <c r="C88" s="10">
-        <v>-2.1999999999999999E-2</v>
+        <v>-1.7999999999999999E-2</v>
       </c>
       <c r="D88" s="17">
-        <v>-5.8999999999999997E-2</v>
+        <v>-4.3999999999999997E-2</v>
       </c>
       <c r="E88" s="9">
-        <v>1105</v>
+        <v>1103</v>
       </c>
       <c r="F88" s="10">
-        <v>7.2999999999999995E-2</v>
+        <v>-2E-3</v>
       </c>
       <c r="G88" s="10">
-        <v>-6.6000000000000003E-2</v>
+        <v>-0.09</v>
       </c>
       <c r="H88" s="16">
-        <v>3403</v>
+        <v>3686</v>
       </c>
       <c r="I88" s="10">
-        <v>5.3999999999999999E-2</v>
+        <v>8.3000000000000004E-2</v>
       </c>
       <c r="J88" s="10">
-        <v>-2.1000000000000001E-2</v>
+        <v>3.5999999999999997E-2</v>
       </c>
     </row>
     <row r="89" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A89" s="21">
-        <v>42370</v>
+        <v>42401</v>
       </c>
       <c r="B89" s="9">
-        <v>22823</v>
+        <v>22930</v>
       </c>
       <c r="C89" s="10">
-        <v>-1.7999999999999999E-2</v>
+        <v>5.0000000000000001E-3</v>
       </c>
       <c r="D89" s="17">
-        <v>-4.3999999999999997E-2</v>
+        <v>-5.6000000000000001E-2</v>
       </c>
       <c r="E89" s="9">
-        <v>1103</v>
+        <v>1079</v>
       </c>
       <c r="F89" s="10">
-        <v>-2E-3</v>
+        <v>-2.1999999999999999E-2</v>
       </c>
       <c r="G89" s="10">
-        <v>-0.09</v>
+        <v>-0.13600000000000001</v>
       </c>
       <c r="H89" s="16">
-        <v>3686</v>
+        <v>3727</v>
       </c>
       <c r="I89" s="10">
-        <v>8.3000000000000004E-2</v>
+        <v>1.0999999999999999E-2</v>
       </c>
       <c r="J89" s="10">
-        <v>3.5999999999999997E-2</v>
+        <v>6.3E-2</v>
       </c>
     </row>
     <row r="90" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A90" s="21">
-        <v>42401</v>
+        <v>42430</v>
       </c>
       <c r="B90" s="9">
-        <v>22930</v>
+        <v>22663</v>
       </c>
       <c r="C90" s="10">
-        <v>5.0000000000000001E-3</v>
+        <v>-1.2E-2</v>
       </c>
       <c r="D90" s="17">
-        <v>-5.6000000000000001E-2</v>
+        <v>-7.1999999999999995E-2</v>
       </c>
       <c r="E90" s="9">
-        <v>1079</v>
+        <v>1071</v>
       </c>
       <c r="F90" s="10">
-        <v>-2.1999999999999999E-2</v>
+        <v>-7.0000000000000001E-3</v>
       </c>
       <c r="G90" s="10">
-        <v>-0.13600000000000001</v>
+        <v>-0.16400000000000001</v>
       </c>
       <c r="H90" s="16">
-        <v>3727</v>
+        <v>3622</v>
       </c>
       <c r="I90" s="10">
-        <v>1.0999999999999999E-2</v>
+        <v>-2.8000000000000001E-2</v>
       </c>
       <c r="J90" s="10">
-        <v>6.3E-2</v>
+        <v>-0.01</v>
       </c>
     </row>
     <row r="91" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A91" s="21">
-        <v>42430</v>
+        <v>42461</v>
       </c>
       <c r="B91" s="9">
-        <v>22663</v>
+        <v>22697</v>
       </c>
       <c r="C91" s="10">
+        <v>2E-3</v>
+      </c>
+      <c r="D91" s="17">
+        <v>-7.5999999999999998E-2</v>
+      </c>
+      <c r="E91" s="9">
+        <v>1057</v>
+      </c>
+      <c r="F91" s="10">
         <v>-1.2E-2</v>
       </c>
-      <c r="D91" s="17">
-        <v>-7.1999999999999995E-2</v>
-      </c>
-      <c r="E91" s="9">
-        <v>1071</v>
-      </c>
-      <c r="F91" s="10">
-        <v>-7.0000000000000001E-3</v>
-      </c>
       <c r="G91" s="10">
-        <v>-0.16400000000000001</v>
+        <v>-0.16700000000000001</v>
       </c>
       <c r="H91" s="16">
-        <v>3622</v>
+        <v>3694</v>
       </c>
       <c r="I91" s="10">
-        <v>-2.8000000000000001E-2</v>
+        <v>0.02</v>
       </c>
       <c r="J91" s="10">
-        <v>-0.01</v>
+        <v>5.0000000000000001E-3</v>
       </c>
     </row>
     <row r="92" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A92" s="21">
-        <v>42461</v>
+        <v>42491</v>
       </c>
       <c r="B92" s="9">
-        <v>22697</v>
+        <v>22524</v>
       </c>
       <c r="C92" s="10">
-        <v>2E-3</v>
+        <v>-8.0000000000000002E-3</v>
       </c>
       <c r="D92" s="17">
-        <v>-7.5999999999999998E-2</v>
+        <v>-7.3999999999999996E-2</v>
       </c>
       <c r="E92" s="9">
-        <v>1057</v>
+        <v>1025</v>
       </c>
       <c r="F92" s="10">
-        <v>-1.2E-2</v>
+        <v>-3.1E-2</v>
       </c>
       <c r="G92" s="10">
-        <v>-0.16700000000000001</v>
+        <v>-0.17599999999999999</v>
       </c>
       <c r="H92" s="16">
-        <v>3694</v>
+        <v>3708</v>
       </c>
       <c r="I92" s="10">
-        <v>0.02</v>
+        <v>4.0000000000000001E-3</v>
       </c>
       <c r="J92" s="10">
-        <v>5.0000000000000001E-3</v>
+        <v>-4.2999999999999997E-2</v>
       </c>
     </row>
     <row r="93" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A93" s="21">
-        <v>42491</v>
+        <v>42522</v>
       </c>
       <c r="B93" s="9">
-        <v>22524</v>
+        <v>22502</v>
       </c>
       <c r="C93" s="10">
-        <v>-8.0000000000000002E-3</v>
+        <v>-1E-3</v>
       </c>
       <c r="D93" s="17">
-        <v>-7.3999999999999996E-2</v>
+        <v>-7.1999999999999995E-2</v>
       </c>
       <c r="E93" s="9">
-        <v>1025</v>
+        <v>995</v>
       </c>
       <c r="F93" s="10">
-        <v>-3.1E-2</v>
+        <v>-2.9000000000000001E-2</v>
       </c>
       <c r="G93" s="10">
-        <v>-0.17599999999999999</v>
+        <v>-0.186</v>
       </c>
       <c r="H93" s="16">
-        <v>3708</v>
+        <v>3476</v>
       </c>
       <c r="I93" s="10">
-        <v>4.0000000000000001E-3</v>
+        <v>-6.2E-2</v>
       </c>
       <c r="J93" s="10">
-        <v>-4.2999999999999997E-2</v>
+        <v>-8.2000000000000003E-2</v>
       </c>
     </row>
     <row r="94" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A94" s="21">
-        <v>42522</v>
+        <v>42552</v>
       </c>
       <c r="B94" s="9">
-        <v>22502</v>
+        <v>22085</v>
       </c>
       <c r="C94" s="10">
-        <v>-1E-3</v>
+        <v>-1.9E-2</v>
       </c>
       <c r="D94" s="17">
-        <v>-7.1999999999999995E-2</v>
+        <v>-9.0999999999999998E-2</v>
       </c>
       <c r="E94" s="9">
-        <v>995</v>
+        <v>984</v>
       </c>
       <c r="F94" s="10">
-        <v>-2.9000000000000001E-2</v>
+        <v>-1.0999999999999999E-2</v>
       </c>
       <c r="G94" s="10">
-        <v>-0.186</v>
+        <v>-0.16800000000000001</v>
       </c>
       <c r="H94" s="16">
-        <v>3476</v>
+        <v>3846</v>
       </c>
       <c r="I94" s="10">
-        <v>-6.2E-2</v>
+        <v>0.106</v>
       </c>
       <c r="J94" s="10">
-        <v>-8.2000000000000003E-2</v>
+        <v>3.5999999999999997E-2</v>
       </c>
     </row>
     <row r="95" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A95" s="21">
-        <v>42552</v>
+        <v>42583</v>
       </c>
       <c r="B95" s="9">
-        <v>22085</v>
+        <v>22078</v>
       </c>
       <c r="C95" s="10">
-        <v>-1.9E-2</v>
+        <v>0</v>
       </c>
       <c r="D95" s="17">
-        <v>-9.0999999999999998E-2</v>
+        <v>-8.5000000000000006E-2</v>
       </c>
       <c r="E95" s="9">
-        <v>984</v>
+        <v>979</v>
       </c>
       <c r="F95" s="10">
-        <v>-1.0999999999999999E-2</v>
+        <v>-5.0000000000000001E-3</v>
       </c>
       <c r="G95" s="10">
-        <v>-0.16800000000000001</v>
+        <v>-8.5000000000000006E-2</v>
       </c>
       <c r="H95" s="16">
-        <v>3846</v>
+        <v>3845</v>
       </c>
       <c r="I95" s="10">
-        <v>0.106</v>
+        <v>0</v>
       </c>
       <c r="J95" s="10">
-        <v>3.5999999999999997E-2</v>
+        <v>3.7999999999999999E-2</v>
       </c>
     </row>
     <row r="96" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A96" s="21">
-        <v>42583</v>
-      </c>
-      <c r="B96" s="9">
-        <v>22078</v>
-      </c>
-      <c r="C96" s="10">
-        <v>0</v>
-      </c>
-      <c r="D96" s="17">
-        <v>-8.5000000000000006E-2</v>
-      </c>
-      <c r="E96" s="9">
-        <v>979</v>
-      </c>
-      <c r="F96" s="10">
-        <v>-5.0000000000000001E-3</v>
-      </c>
-      <c r="G96" s="10">
-        <v>-8.5000000000000006E-2</v>
-      </c>
-      <c r="H96" s="16">
-        <v>3845</v>
-      </c>
-      <c r="I96" s="10">
-        <v>0</v>
-      </c>
-      <c r="J96" s="10">
-        <v>3.7999999999999999E-2</v>
+        <v>42614</v>
+      </c>
+      <c r="B96" s="11">
+        <v>21755</v>
+      </c>
+      <c r="C96" s="12">
+        <v>-1.4999999999999999E-2</v>
+      </c>
+      <c r="D96" s="19">
+        <v>-0.107</v>
+      </c>
+      <c r="E96" s="11">
+        <v>967</v>
+      </c>
+      <c r="F96" s="20">
+        <v>-1.2999999999999999E-2</v>
+      </c>
+      <c r="G96" s="20">
+        <v>-6.7000000000000004E-2</v>
+      </c>
+      <c r="H96" s="18">
+        <v>3831</v>
+      </c>
+      <c r="I96" s="20">
+        <v>-4.0000000000000001E-3</v>
+      </c>
+      <c r="J96" s="20">
+        <v>2.7E-2</v>
       </c>
     </row>
     <row r="97" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A97" s="21">
-        <v>42614</v>
+        <v>42644</v>
       </c>
       <c r="B97" s="11">
-        <v>21756</v>
+        <v>21512</v>
       </c>
       <c r="C97" s="12">
-        <v>-1.4999999999999999E-2</v>
+        <v>-1.0999999999999999E-2</v>
       </c>
       <c r="D97" s="19">
-        <v>-0.107</v>
+        <v>-9.8000000000000004E-2</v>
       </c>
       <c r="E97" s="11">
-        <v>967</v>
+        <v>944</v>
       </c>
       <c r="F97" s="20">
-        <v>-1.2999999999999999E-2</v>
+        <v>-2.3E-2</v>
       </c>
       <c r="G97" s="20">
-        <v>-6.7000000000000004E-2</v>
+        <v>-7.4999999999999997E-2</v>
       </c>
       <c r="H97" s="18">
-        <v>3826</v>
+        <v>3811</v>
       </c>
       <c r="I97" s="20">
         <v>-5.0000000000000001E-3</v>
       </c>
       <c r="J97" s="20">
-        <v>2.5000000000000001E-2</v>
+        <v>8.6999999999999994E-2</v>
       </c>
     </row>
     <row r="98" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A98" s="21">
-        <v>42644</v>
+        <v>42675</v>
       </c>
       <c r="B98" s="11">
-        <v>21535</v>
+        <v>21248</v>
       </c>
       <c r="C98" s="12">
-        <v>-0.01</v>
+        <v>-1.2E-2</v>
       </c>
       <c r="D98" s="19">
-        <v>-9.7000000000000003E-2</v>
+        <v>-0.106</v>
       </c>
       <c r="E98" s="11">
-        <v>944</v>
+        <v>925</v>
       </c>
       <c r="F98" s="20">
-        <v>-2.3E-2</v>
+        <v>-0.02</v>
       </c>
       <c r="G98" s="20">
-        <v>-7.4999999999999997E-2</v>
+        <v>-0.10199999999999999</v>
       </c>
       <c r="H98" s="18">
-        <v>3808</v>
+        <v>3869</v>
       </c>
       <c r="I98" s="20">
-        <v>-5.0000000000000001E-3</v>
+        <v>1.4999999999999999E-2</v>
       </c>
       <c r="J98" s="20">
-        <v>8.5999999999999993E-2</v>
+        <v>0.19900000000000001</v>
       </c>
     </row>
     <row r="100" spans="1:10" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -3730,137 +3732,137 @@
     </row>
     <row r="102" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A102" s="21">
-        <v>42278</v>
+        <v>42309</v>
       </c>
       <c r="B102" s="9">
-        <v>5438</v>
+        <v>5462</v>
       </c>
       <c r="C102" s="10">
-        <v>0</v>
+        <v>4.0000000000000001E-3</v>
       </c>
       <c r="D102" s="17">
-        <v>-1.9E-2</v>
+        <v>-5.0000000000000001E-3</v>
       </c>
       <c r="E102" s="9">
-        <v>1634</v>
+        <v>1618</v>
       </c>
       <c r="F102" s="10">
-        <v>-3.0000000000000001E-3</v>
+        <v>-0.01</v>
       </c>
       <c r="G102" s="10">
-        <v>-5.7000000000000002E-2</v>
+        <v>-4.9000000000000002E-2</v>
       </c>
     </row>
     <row r="103" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A103" s="21">
-        <v>42309</v>
+        <v>42339</v>
       </c>
       <c r="B103" s="9">
-        <v>5462</v>
+        <v>5365</v>
       </c>
       <c r="C103" s="10">
-        <v>4.0000000000000001E-3</v>
+        <v>-1.7999999999999999E-2</v>
       </c>
       <c r="D103" s="17">
+        <v>-1.9E-2</v>
+      </c>
+      <c r="E103" s="9">
+        <v>1609</v>
+      </c>
+      <c r="F103" s="10">
         <v>-5.0000000000000001E-3</v>
       </c>
-      <c r="E103" s="9">
-        <v>1618</v>
-      </c>
-      <c r="F103" s="10">
-        <v>-0.01</v>
-      </c>
       <c r="G103" s="10">
-        <v>-4.9000000000000002E-2</v>
+        <v>-6.6000000000000003E-2</v>
       </c>
     </row>
     <row r="104" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A104" s="21">
-        <v>42339</v>
+        <v>42370</v>
       </c>
       <c r="B104" s="9">
-        <v>5365</v>
+        <v>5030</v>
       </c>
       <c r="C104" s="10">
-        <v>-1.7999999999999999E-2</v>
+        <v>-6.2E-2</v>
       </c>
       <c r="D104" s="17">
-        <v>-1.9E-2</v>
+        <v>-6.5000000000000002E-2</v>
       </c>
       <c r="E104" s="9">
-        <v>1609</v>
+        <v>1592</v>
       </c>
       <c r="F104" s="10">
-        <v>-5.0000000000000001E-3</v>
+        <v>-1.0999999999999999E-2</v>
       </c>
       <c r="G104" s="10">
-        <v>-6.6000000000000003E-2</v>
+        <v>-5.6000000000000001E-2</v>
       </c>
     </row>
     <row r="105" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A105" s="21">
-        <v>42370</v>
+        <v>42401</v>
       </c>
       <c r="B105" s="9">
-        <v>5030</v>
+        <v>5016</v>
       </c>
       <c r="C105" s="10">
-        <v>-6.2E-2</v>
+        <v>-3.0000000000000001E-3</v>
       </c>
       <c r="D105" s="17">
-        <v>-6.5000000000000002E-2</v>
+        <v>-7.0000000000000007E-2</v>
       </c>
       <c r="E105" s="9">
-        <v>1592</v>
+        <v>1593</v>
       </c>
       <c r="F105" s="10">
-        <v>-1.0999999999999999E-2</v>
+        <v>1E-3</v>
       </c>
       <c r="G105" s="10">
-        <v>-5.6000000000000001E-2</v>
+        <v>-5.1999999999999998E-2</v>
       </c>
     </row>
     <row r="106" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A106" s="21">
-        <v>42401</v>
+        <v>42430</v>
       </c>
       <c r="B106" s="9">
-        <v>5016</v>
+        <v>5036</v>
       </c>
       <c r="C106" s="10">
-        <v>-3.0000000000000001E-3</v>
+        <v>4.0000000000000001E-3</v>
       </c>
       <c r="D106" s="17">
-        <v>-7.0000000000000007E-2</v>
+        <v>-8.4000000000000005E-2</v>
       </c>
       <c r="E106" s="9">
-        <v>1593</v>
+        <v>1566</v>
       </c>
       <c r="F106" s="10">
-        <v>1E-3</v>
+        <v>-1.7000000000000001E-2</v>
       </c>
       <c r="G106" s="10">
-        <v>-5.1999999999999998E-2</v>
+        <v>-0.05</v>
       </c>
     </row>
     <row r="107" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A107" s="21">
-        <v>42430</v>
+        <v>42461</v>
       </c>
       <c r="B107" s="9">
-        <v>5036</v>
+        <v>4957</v>
       </c>
       <c r="C107" s="10">
-        <v>4.0000000000000001E-3</v>
+        <v>-1.6E-2</v>
       </c>
       <c r="D107" s="17">
-        <v>-8.4000000000000005E-2</v>
+        <v>-0.11</v>
       </c>
       <c r="E107" s="9">
-        <v>1566</v>
+        <v>1560</v>
       </c>
       <c r="F107" s="10">
-        <v>-1.7000000000000001E-2</v>
+        <v>-4.0000000000000001E-3</v>
       </c>
       <c r="G107" s="10">
         <v>-0.05</v>
@@ -3868,22 +3870,22 @@
     </row>
     <row r="108" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A108" s="21">
-        <v>42461</v>
+        <v>42491</v>
       </c>
       <c r="B108" s="9">
-        <v>4957</v>
+        <v>4797</v>
       </c>
       <c r="C108" s="10">
-        <v>-1.6E-2</v>
+        <v>-3.2000000000000001E-2</v>
       </c>
       <c r="D108" s="17">
-        <v>-0.11</v>
+        <v>-0.111</v>
       </c>
       <c r="E108" s="9">
-        <v>1560</v>
+        <v>1557</v>
       </c>
       <c r="F108" s="10">
-        <v>-4.0000000000000001E-3</v>
+        <v>-2E-3</v>
       </c>
       <c r="G108" s="10">
         <v>-0.05</v>
@@ -3891,140 +3893,140 @@
     </row>
     <row r="109" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A109" s="21">
-        <v>42491</v>
+        <v>42522</v>
       </c>
       <c r="B109" s="9">
-        <v>4797</v>
+        <v>4844</v>
       </c>
       <c r="C109" s="10">
-        <v>-3.2000000000000001E-2</v>
+        <v>0.01</v>
       </c>
       <c r="D109" s="17">
-        <v>-0.111</v>
+        <v>-0.114</v>
       </c>
       <c r="E109" s="9">
-        <v>1557</v>
+        <v>1527</v>
       </c>
       <c r="F109" s="10">
-        <v>-2E-3</v>
+        <v>-1.9E-2</v>
       </c>
       <c r="G109" s="10">
-        <v>-0.05</v>
+        <v>-8.5000000000000006E-2</v>
       </c>
     </row>
     <row r="110" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A110" s="21">
-        <v>42522</v>
+        <v>42552</v>
       </c>
       <c r="B110" s="9">
-        <v>4844</v>
+        <v>4406</v>
       </c>
       <c r="C110" s="10">
-        <v>0.01</v>
+        <v>-0.09</v>
       </c>
       <c r="D110" s="17">
-        <v>-0.114</v>
+        <v>-0.183</v>
       </c>
       <c r="E110" s="9">
-        <v>1527</v>
+        <v>1522</v>
       </c>
       <c r="F110" s="10">
-        <v>-1.9E-2</v>
+        <v>-4.0000000000000001E-3</v>
       </c>
       <c r="G110" s="10">
-        <v>-8.5000000000000006E-2</v>
+        <v>-7.5999999999999998E-2</v>
       </c>
     </row>
     <row r="111" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A111" s="21">
-        <v>42552</v>
+        <v>42583</v>
       </c>
       <c r="B111" s="9">
-        <v>4406</v>
+        <v>4508</v>
       </c>
       <c r="C111" s="10">
-        <v>-0.09</v>
+        <v>2.3E-2</v>
       </c>
       <c r="D111" s="17">
-        <v>-0.183</v>
+        <v>-0.16800000000000001</v>
       </c>
       <c r="E111" s="9">
-        <v>1522</v>
+        <v>1507</v>
       </c>
       <c r="F111" s="10">
-        <v>-4.0000000000000001E-3</v>
+        <v>-0.01</v>
       </c>
       <c r="G111" s="10">
-        <v>-7.5999999999999998E-2</v>
+        <v>-8.2000000000000003E-2</v>
       </c>
     </row>
     <row r="112" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A112" s="21">
-        <v>42583</v>
-      </c>
-      <c r="B112" s="9">
-        <v>4508</v>
-      </c>
-      <c r="C112" s="10">
-        <v>2.3E-2</v>
-      </c>
-      <c r="D112" s="17">
-        <v>-0.16800000000000001</v>
-      </c>
-      <c r="E112" s="9">
-        <v>1507</v>
-      </c>
-      <c r="F112" s="10">
-        <v>-0.01</v>
-      </c>
-      <c r="G112" s="10">
-        <v>-8.3000000000000004E-2</v>
+        <v>42614</v>
+      </c>
+      <c r="B112" s="11">
+        <v>4847</v>
+      </c>
+      <c r="C112" s="12">
+        <v>7.4999999999999997E-2</v>
+      </c>
+      <c r="D112" s="19">
+        <v>-0.109</v>
+      </c>
+      <c r="E112" s="11">
+        <v>1510</v>
+      </c>
+      <c r="F112" s="20">
+        <v>2E-3</v>
+      </c>
+      <c r="G112" s="20">
+        <v>-7.8E-2</v>
       </c>
     </row>
     <row r="113" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A113" s="21">
-        <v>42614</v>
+        <v>42644</v>
       </c>
       <c r="B113" s="11">
-        <v>4857</v>
+        <v>4921</v>
       </c>
       <c r="C113" s="12">
-        <v>7.6999999999999999E-2</v>
+        <v>1.4999999999999999E-2</v>
       </c>
       <c r="D113" s="19">
-        <v>-0.107</v>
+        <v>-9.5000000000000001E-2</v>
       </c>
       <c r="E113" s="11">
-        <v>1510</v>
+        <v>1503</v>
       </c>
       <c r="F113" s="20">
-        <v>2E-3</v>
+        <v>-5.0000000000000001E-3</v>
       </c>
       <c r="G113" s="20">
-        <v>-7.8E-2</v>
+        <v>-0.08</v>
       </c>
     </row>
     <row r="114" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A114" s="21">
-        <v>42644</v>
+        <v>42675</v>
       </c>
       <c r="B114" s="11">
-        <v>4924</v>
+        <v>4806</v>
       </c>
       <c r="C114" s="12">
-        <v>1.4E-2</v>
+        <v>-2.3E-2</v>
       </c>
       <c r="D114" s="19">
-        <v>-9.5000000000000001E-2</v>
+        <v>-0.12</v>
       </c>
       <c r="E114" s="11">
-        <v>1503</v>
+        <v>1499</v>
       </c>
       <c r="F114" s="20">
-        <v>-5.0000000000000001E-3</v>
+        <v>-3.0000000000000001E-3</v>
       </c>
       <c r="G114" s="20">
-        <v>-0.08</v>
+        <v>-7.3999999999999996E-2</v>
       </c>
     </row>
   </sheetData>
